--- a/risk_lib/factor_master.xlsx
+++ b/risk_lib/factor_master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bkrai\Source\risk\risk_lib\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58566E96-F4D4-4921-B12D-CAB65ACE49CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B492B03-0CC0-4B15-B78A-A924D753610B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="2" activeTab="6" xr2:uid="{C31FDC5B-A809-4BFD-99CB-DA02246721F7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="5" xr2:uid="{C31FDC5B-A809-4BFD-99CB-DA02246721F7}"/>
   </bookViews>
   <sheets>
     <sheet name="legacy" sheetId="5" r:id="rId1"/>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1926" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1989" uniqueCount="507">
   <si>
     <t>SPX</t>
   </si>
@@ -1567,12 +1567,57 @@
   </si>
   <si>
     <t>note</t>
+  </si>
+  <si>
+    <t>DX-Y.NYB</t>
+  </si>
+  <si>
+    <t>DXY</t>
+  </si>
+  <si>
+    <t>VXX</t>
+  </si>
+  <si>
+    <t>VIX Short-Term Futures ETN</t>
+  </si>
+  <si>
+    <t>^VIX3M</t>
+  </si>
+  <si>
+    <t>CBOE S&amp;P 500 3-Month Volatility</t>
+  </si>
+  <si>
+    <t>FXF</t>
+  </si>
+  <si>
+    <t>Invesco CurrencyShares Swiss Franc Trust</t>
+  </si>
+  <si>
+    <t>Swiss franc against the U.S. dollar</t>
+  </si>
+  <si>
+    <t>TRADEWAR</t>
+  </si>
+  <si>
+    <t>Can also short discretionary/staples</t>
+  </si>
+  <si>
+    <t>volweight</t>
+  </si>
+  <si>
+    <t>XLPXLY</t>
+  </si>
+  <si>
+    <t>TRADEWAR_OLD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1631,7 +1676,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1650,17 +1695,21 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="35">
+  <dxfs count="41">
     <dxf>
       <border>
         <top style="thin">
@@ -1680,8 +1729,58 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <border>
@@ -1741,6 +1840,10 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1843,8 +1946,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Table Style 1" pivot="0" count="2" xr9:uid="{26B58CFA-74FB-41FD-AB02-EC6D3EA4F4A1}">
-      <tableStyleElement type="wholeTable" dxfId="34"/>
-      <tableStyleElement type="headerRow" dxfId="33"/>
+      <tableStyleElement type="wholeTable" dxfId="40"/>
+      <tableStyleElement type="headerRow" dxfId="39"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1917,8 +2020,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B096ECD9-9D11-4532-B7BB-C59C7AF13EE1}" name="composities" displayName="composities" ref="A1:C14" totalsRowShown="0">
-  <autoFilter ref="A1:C14" xr:uid="{B096ECD9-9D11-4532-B7BB-C59C7AF13EE1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B096ECD9-9D11-4532-B7BB-C59C7AF13EE1}" name="composities" displayName="composities" ref="A1:C22" totalsRowShown="0">
+  <autoFilter ref="A1:C22" xr:uid="{B096ECD9-9D11-4532-B7BB-C59C7AF13EE1}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{871951C6-7319-4AA1-8565-79E8F38A5ACE}" name="portfolio_name"/>
     <tableColumn id="2" xr3:uid="{FF366C7B-7C4B-413F-92EE-C488EBE75CC9}" name="factor_name"/>
@@ -1929,49 +2032,49 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6DAD1482-C63D-400D-9F51-F22A8E35CAD8}" name="data" displayName="data" ref="A1:Q81" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6DAD1482-C63D-400D-9F51-F22A8E35CAD8}" name="data" displayName="data" ref="A1:Q87" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37">
   <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{740DC173-AAC9-4239-A44E-C43F8517304D}" name="asset_class" dataDxfId="30"/>
-    <tableColumn id="2" xr3:uid="{A3BC3BB8-0420-458E-AECD-FD567519FA40}" name="region" dataDxfId="29"/>
-    <tableColumn id="3" xr3:uid="{0E50B2E3-0362-41DB-ACC2-478CC6F618A4}" name="factor_name" dataDxfId="28"/>
-    <tableColumn id="8" xr3:uid="{02943B27-7FCB-4450-B8E0-CF0DB6CF5CCA}" name="factor_name_new" dataDxfId="27"/>
-    <tableColumn id="4" xr3:uid="{D181BF84-863F-4FD0-B518-14EA5B0FB18E}" name="description_override" dataDxfId="26"/>
-    <tableColumn id="6" xr3:uid="{1C40DF9B-2910-4DE6-A188-563938E39797}" name="Description_GPT" dataDxfId="25"/>
-    <tableColumn id="5" xr3:uid="{1806E074-6CB5-47AB-8FA3-EF0F6E429062}" name="Underlying" dataDxfId="24"/>
-    <tableColumn id="7" xr3:uid="{21539C17-C1CC-4FA9-A0E1-A2F8FF8AB52C}" name="Active" dataDxfId="23"/>
-    <tableColumn id="37" xr3:uid="{DE50B7AE-5F67-471C-BE48-8BFA5076EDB0}" name="hyper_factor" dataDxfId="22"/>
-    <tableColumn id="10" xr3:uid="{494805E4-EBB6-47FD-9BC2-8DAD9FB9D3FA}" name="composite" dataDxfId="21"/>
-    <tableColumn id="14" xr3:uid="{608FE572-4016-436E-8625-08926F3A2371}" name="client" dataDxfId="20"/>
-    <tableColumn id="9" xr3:uid="{5A601067-D384-419C-A711-AD3034F77E28}" name="description" dataDxfId="19">
+    <tableColumn id="1" xr3:uid="{740DC173-AAC9-4239-A44E-C43F8517304D}" name="asset_class" dataDxfId="36"/>
+    <tableColumn id="2" xr3:uid="{A3BC3BB8-0420-458E-AECD-FD567519FA40}" name="region" dataDxfId="35"/>
+    <tableColumn id="3" xr3:uid="{0E50B2E3-0362-41DB-ACC2-478CC6F618A4}" name="factor_name" dataDxfId="34"/>
+    <tableColumn id="8" xr3:uid="{02943B27-7FCB-4450-B8E0-CF0DB6CF5CCA}" name="factor_name_new" dataDxfId="33"/>
+    <tableColumn id="4" xr3:uid="{D181BF84-863F-4FD0-B518-14EA5B0FB18E}" name="description_override" dataDxfId="32"/>
+    <tableColumn id="6" xr3:uid="{1C40DF9B-2910-4DE6-A188-563938E39797}" name="Description_GPT" dataDxfId="31"/>
+    <tableColumn id="5" xr3:uid="{1806E074-6CB5-47AB-8FA3-EF0F6E429062}" name="Underlying" dataDxfId="30"/>
+    <tableColumn id="7" xr3:uid="{21539C17-C1CC-4FA9-A0E1-A2F8FF8AB52C}" name="Active" dataDxfId="29"/>
+    <tableColumn id="37" xr3:uid="{DE50B7AE-5F67-471C-BE48-8BFA5076EDB0}" name="hyper_factor" dataDxfId="28"/>
+    <tableColumn id="10" xr3:uid="{494805E4-EBB6-47FD-9BC2-8DAD9FB9D3FA}" name="composite" dataDxfId="27"/>
+    <tableColumn id="14" xr3:uid="{608FE572-4016-436E-8625-08926F3A2371}" name="client" dataDxfId="26"/>
+    <tableColumn id="9" xr3:uid="{5A601067-D384-419C-A711-AD3034F77E28}" name="description" dataDxfId="25">
       <calculatedColumnFormula>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{C400A641-F032-4829-A2CD-62831D657B37}" name="source" dataDxfId="18"/>
-    <tableColumn id="12" xr3:uid="{BC682952-ADA8-4869-A16F-B9E7BC86E430}" name="diffusion_type" dataDxfId="17"/>
-    <tableColumn id="16" xr3:uid="{A99CC35E-FB67-451C-BF9C-DA8D933B1B0C}" name="multiplier" dataDxfId="16">
+    <tableColumn id="11" xr3:uid="{C400A641-F032-4829-A2CD-62831D657B37}" name="source" dataDxfId="24"/>
+    <tableColumn id="12" xr3:uid="{BC682952-ADA8-4869-A16F-B9E7BC86E430}" name="diffusion_type" dataDxfId="23"/>
+    <tableColumn id="16" xr3:uid="{A99CC35E-FB67-451C-BF9C-DA8D933B1B0C}" name="multiplier" dataDxfId="22">
       <calculatedColumnFormula array="1">_xlfn.SWITCH(data[[#This Row],[diffusion_type]],"lognormal",0.0001,"normal",-0.01)*IF(data[[#This Row],[asset_class]]="Vol",-1,1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{64EF0381-B0C5-4226-B34E-0F9752A4A840}" name="ticker" dataDxfId="15">
+    <tableColumn id="13" xr3:uid="{64EF0381-B0C5-4226-B34E-0F9752A4A840}" name="ticker" dataDxfId="21">
       <calculatedColumnFormula>data[[#This Row],[factor_name]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{D49341AB-DA48-473E-8CCB-3A3D04AED743}" name="note" dataDxfId="2"/>
+    <tableColumn id="15" xr3:uid="{D49341AB-DA48-473E-8CCB-3A3D04AED743}" name="note" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F918301C-859F-40B7-9C3E-90E8F0495E68}" name="data_old" displayName="data_old" ref="A1:I45" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F918301C-859F-40B7-9C3E-90E8F0495E68}" name="data_old" displayName="data_old" ref="A1:I45" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
   <autoFilter ref="A1:I45" xr:uid="{6DAD1482-C63D-400D-9F51-F22A8E35CAD8}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{B19D2B17-9AC9-4F1B-B32E-D4F72AAE469F}" name="asset_class" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{2C7CF29D-8E72-4B0C-A212-31F2A25D75C9}" name="region" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{C7E89EEC-2B5D-4C94-9327-1AC8E33DE708}" name="factor_name" dataDxfId="10"/>
-    <tableColumn id="8" xr3:uid="{B3F9004A-8BEB-463E-A746-8189A2AC2B3E}" name="factor_name_new" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{51CD7FB3-58FE-4906-B73C-7726C0A9C471}" name="description_override" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{3CFF990B-3164-4533-821F-08CE7C6D82CA}" name="Description_GPT" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{DD86D53E-A9B4-4387-ABF9-F2625E77982D}" name="Underlying" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{D56FFF9A-72FF-42A4-B3D2-2F27AB16AF7A}" name="Active" dataDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{8476DFDE-B4B1-4FD9-99B4-DF1F2ABBD7D5}" name="description" dataDxfId="4">
+    <tableColumn id="1" xr3:uid="{B19D2B17-9AC9-4F1B-B32E-D4F72AAE469F}" name="asset_class" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{2C7CF29D-8E72-4B0C-A212-31F2A25D75C9}" name="region" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{C7E89EEC-2B5D-4C94-9327-1AC8E33DE708}" name="factor_name" dataDxfId="15"/>
+    <tableColumn id="8" xr3:uid="{B3F9004A-8BEB-463E-A746-8189A2AC2B3E}" name="factor_name_new" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{51CD7FB3-58FE-4906-B73C-7726C0A9C471}" name="description_override" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{3CFF990B-3164-4533-821F-08CE7C6D82CA}" name="Description_GPT" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{DD86D53E-A9B4-4387-ABF9-F2625E77982D}" name="Underlying" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{D56FFF9A-72FF-42A4-B3D2-2F27AB16AF7A}" name="Active" dataDxfId="10"/>
+    <tableColumn id="9" xr3:uid="{8476DFDE-B4B1-4FD9-99B4-DF1F2ABBD7D5}" name="description" dataDxfId="9">
       <calculatedColumnFormula>IF(data_old[[#This Row],[description_override]]="",data_old[[#This Row],[Description_GPT]],data_old[[#This Row],[description_override]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3711,7 +3814,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9123E77-EA56-403E-A728-B01259D22573}">
-  <dimension ref="A1:J59"/>
+  <dimension ref="A1:J63"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -3754,11 +3857,11 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="str" cm="1">
-        <f t="array" ref="A2:A59">_xlfn._xlws.FILTER(data[factor_name],(data[Active])*(data[source]="yfinance"))</f>
+        <f t="array" ref="A2:A63">_xlfn._xlws.FILTER(data[factor_name],(data[Active])*(data[source]="yfinance"))</f>
         <v>SPY</v>
       </c>
       <c r="B2" t="str" cm="1">
-        <f t="array" ref="B2:J59">INDEX(data[],_xlfn.XMATCH(_xlfn.ANCHORARRAY(A2),data[factor_name]),_xlfn.XMATCH(B1:J1,data[#Headers]))</f>
+        <f t="array" ref="B2:J63">INDEX(data[],_xlfn.XMATCH(_xlfn.ANCHORARRAY(A2),data[factor_name]),_xlfn.XMATCH(B1:J1,data[#Headers]))</f>
         <v>Equities</v>
       </c>
       <c r="C2" t="str">
@@ -5452,13 +5555,13 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" t="str">
-        <v>FXE</v>
+        <v>DX-Y.NYB</v>
       </c>
       <c r="B55" t="str">
         <v>Currencies</v>
       </c>
       <c r="C55" t="str">
-        <v>EUR</v>
+        <v>USD</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -5466,14 +5569,14 @@
       <c r="E55">
         <v>0</v>
       </c>
-      <c r="F55" t="str">
-        <v>Invesco CurrencyShares Euro Trust</v>
+      <c r="F55">
+        <v>0</v>
       </c>
       <c r="G55" t="str">
         <v>yfinance</v>
       </c>
       <c r="H55" t="str">
-        <v>FXE</v>
+        <v>DX-Y.NYB</v>
       </c>
       <c r="I55" t="str">
         <v>lognormal</v>
@@ -5484,13 +5587,13 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" t="str">
-        <v>FXY</v>
+        <v>FXE</v>
       </c>
       <c r="B56" t="str">
         <v>Currencies</v>
       </c>
       <c r="C56" t="str">
-        <v>JPY</v>
+        <v>EUR</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -5499,13 +5602,13 @@
         <v>0</v>
       </c>
       <c r="F56" t="str">
-        <v>Invesco CurrencyShares Japanese Yen Trust</v>
+        <v>Invesco CurrencyShares Euro Trust</v>
       </c>
       <c r="G56" t="str">
         <v>yfinance</v>
       </c>
       <c r="H56" t="str">
-        <v>FXY</v>
+        <v>FXE</v>
       </c>
       <c r="I56" t="str">
         <v>lognormal</v>
@@ -5516,13 +5619,13 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" t="str">
-        <v>^VIX</v>
+        <v>FXY</v>
       </c>
       <c r="B57" t="str">
-        <v>Vol</v>
+        <v>Currencies</v>
       </c>
       <c r="C57" t="str">
-        <v>USD</v>
+        <v>JPY</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -5531,30 +5634,30 @@
         <v>0</v>
       </c>
       <c r="F57" t="str">
-        <v>CBOE Volatility Index</v>
+        <v>Invesco CurrencyShares Japanese Yen Trust</v>
       </c>
       <c r="G57" t="str">
         <v>yfinance</v>
       </c>
       <c r="H57" t="str">
-        <v>^VIX</v>
+        <v>FXY</v>
       </c>
       <c r="I57" t="str">
         <v>lognormal</v>
       </c>
       <c r="J57">
-        <v>-1E-4</v>
+        <v>1E-4</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" t="str">
-        <v>^MOVE</v>
+        <v>FXF</v>
       </c>
       <c r="B58" t="str">
-        <v>Vol</v>
+        <v>Currencies</v>
       </c>
       <c r="C58" t="str">
-        <v>USD</v>
+        <v>JPY</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -5563,50 +5666,178 @@
         <v>0</v>
       </c>
       <c r="F58" t="str">
-        <v>ICE BofAML MOVE Index</v>
+        <v>Invesco CurrencyShares Swiss Franc Trust</v>
       </c>
       <c r="G58" t="str">
         <v>yfinance</v>
       </c>
       <c r="H58" t="str">
-        <v>^MOVE</v>
+        <v>FXF</v>
       </c>
       <c r="I58" t="str">
         <v>lognormal</v>
       </c>
       <c r="J58">
-        <v>-1E-4</v>
+        <v>1E-4</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" t="str">
-        <v>MWTIX</v>
+        <v>^VIX</v>
       </c>
       <c r="B59" t="str">
-        <v>Portfolio</v>
+        <v>Vol</v>
       </c>
       <c r="C59" t="str">
         <v>USD</v>
       </c>
       <c r="D59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E59">
         <v>0</v>
       </c>
-      <c r="F59">
-        <v>0</v>
+      <c r="F59" t="str">
+        <v>CBOE Volatility Index</v>
       </c>
       <c r="G59" t="str">
         <v>yfinance</v>
       </c>
       <c r="H59" t="str">
-        <v>MWTIX</v>
+        <v>^VIX</v>
       </c>
       <c r="I59" t="str">
         <v>lognormal</v>
       </c>
       <c r="J59">
+        <v>-1E-4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A60" t="str">
+        <v>VXX</v>
+      </c>
+      <c r="B60" t="str">
+        <v>Vol</v>
+      </c>
+      <c r="C60" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60" t="str">
+        <v>VIX Short-Term Futures ETN</v>
+      </c>
+      <c r="G60" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H60" t="str">
+        <v>VXX</v>
+      </c>
+      <c r="I60" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J60">
+        <v>-1E-4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A61" t="str">
+        <v>^VIX3M</v>
+      </c>
+      <c r="B61" t="str">
+        <v>Vol</v>
+      </c>
+      <c r="C61" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61" t="str">
+        <v>CBOE S&amp;P 500 3-Month Volatility</v>
+      </c>
+      <c r="G61" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H61" t="str">
+        <v>^VIX3M</v>
+      </c>
+      <c r="I61" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J61">
+        <v>-1E-4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A62" t="str">
+        <v>^MOVE</v>
+      </c>
+      <c r="B62" t="str">
+        <v>Vol</v>
+      </c>
+      <c r="C62" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62" t="str">
+        <v>ICE BofAML MOVE Index</v>
+      </c>
+      <c r="G62" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H62" t="str">
+        <v>^MOVE</v>
+      </c>
+      <c r="I62" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J62">
+        <v>-1E-4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A63" t="str">
+        <v>MWTIX</v>
+      </c>
+      <c r="B63" t="str">
+        <v>Portfolio</v>
+      </c>
+      <c r="C63" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63" t="str">
+        <v>yfinance</v>
+      </c>
+      <c r="H63" t="str">
+        <v>MWTIX</v>
+      </c>
+      <c r="I63" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J63">
         <v>1E-4</v>
       </c>
     </row>
@@ -5618,7 +5849,7 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2977BD7F-9323-4F6D-98BF-C1B39119DCDE}">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:J63"/>
+  <dimension ref="A1:J69"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -5663,11 +5894,11 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="str" cm="1">
-        <f t="array" ref="A2:A63">_xlfn._xlws.FILTER(data[factor_name],data[Active]*(data[client]=0))</f>
+        <f t="array" ref="A2:A69">_xlfn._xlws.FILTER(data[factor_name],data[Active]*(data[client]=0))</f>
         <v>SPY</v>
       </c>
       <c r="B2" t="str" cm="1">
-        <f t="array" ref="B2:J63">INDEX(data[],_xlfn.XMATCH(_xlfn.ANCHORARRAY(A2),data[factor_name]),_xlfn.XMATCH(B1:J1,data[#Headers]))</f>
+        <f t="array" ref="B2:J69">INDEX(data[],_xlfn.XMATCH(_xlfn.ANCHORARRAY(A2),data[factor_name]),_xlfn.XMATCH(B1:J1,data[#Headers]))</f>
         <v>Equities</v>
       </c>
       <c r="C2" t="str">
@@ -7361,13 +7592,13 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" t="str">
-        <v>FXE</v>
+        <v>DX-Y.NYB</v>
       </c>
       <c r="B55" t="str">
         <v>Currencies</v>
       </c>
       <c r="C55" t="str">
-        <v>EUR</v>
+        <v>USD</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -7375,14 +7606,14 @@
       <c r="E55">
         <v>0</v>
       </c>
-      <c r="F55" t="str">
-        <v>Invesco CurrencyShares Euro Trust</v>
+      <c r="F55">
+        <v>0</v>
       </c>
       <c r="G55" t="str">
         <v>yfinance</v>
       </c>
       <c r="H55" t="str">
-        <v>FXE</v>
+        <v>DX-Y.NYB</v>
       </c>
       <c r="I55" t="str">
         <v>lognormal</v>
@@ -7393,13 +7624,13 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" t="str">
-        <v>FXY</v>
+        <v>FXE</v>
       </c>
       <c r="B56" t="str">
         <v>Currencies</v>
       </c>
       <c r="C56" t="str">
-        <v>JPY</v>
+        <v>EUR</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -7408,13 +7639,13 @@
         <v>0</v>
       </c>
       <c r="F56" t="str">
-        <v>Invesco CurrencyShares Japanese Yen Trust</v>
+        <v>Invesco CurrencyShares Euro Trust</v>
       </c>
       <c r="G56" t="str">
         <v>yfinance</v>
       </c>
       <c r="H56" t="str">
-        <v>FXY</v>
+        <v>FXE</v>
       </c>
       <c r="I56" t="str">
         <v>lognormal</v>
@@ -7425,13 +7656,13 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" t="str">
-        <v>^VIX</v>
+        <v>FXY</v>
       </c>
       <c r="B57" t="str">
-        <v>Vol</v>
+        <v>Currencies</v>
       </c>
       <c r="C57" t="str">
-        <v>USD</v>
+        <v>JPY</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -7440,30 +7671,30 @@
         <v>0</v>
       </c>
       <c r="F57" t="str">
-        <v>CBOE Volatility Index</v>
+        <v>Invesco CurrencyShares Japanese Yen Trust</v>
       </c>
       <c r="G57" t="str">
         <v>yfinance</v>
       </c>
       <c r="H57" t="str">
-        <v>^VIX</v>
+        <v>FXY</v>
       </c>
       <c r="I57" t="str">
         <v>lognormal</v>
       </c>
       <c r="J57">
-        <v>-1E-4</v>
+        <v>1E-4</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" t="str">
-        <v>^MOVE</v>
+        <v>FXF</v>
       </c>
       <c r="B58" t="str">
-        <v>Vol</v>
+        <v>Currencies</v>
       </c>
       <c r="C58" t="str">
-        <v>USD</v>
+        <v>JPY</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -7472,152 +7703,152 @@
         <v>0</v>
       </c>
       <c r="F58" t="str">
-        <v>ICE BofAML MOVE Index</v>
+        <v>Invesco CurrencyShares Swiss Franc Trust</v>
       </c>
       <c r="G58" t="str">
         <v>yfinance</v>
       </c>
       <c r="H58" t="str">
-        <v>^MOVE</v>
+        <v>FXF</v>
       </c>
       <c r="I58" t="str">
         <v>lognormal</v>
       </c>
       <c r="J58">
-        <v>-1E-4</v>
+        <v>1E-4</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" t="str">
-        <v>TRUMP</v>
+        <v>^VIX</v>
       </c>
       <c r="B59" t="str">
-        <v>Theme</v>
+        <v>Vol</v>
       </c>
       <c r="C59" t="str">
         <v>USD</v>
       </c>
       <c r="D59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E59">
-        <v>1</v>
-      </c>
-      <c r="F59">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="F59" t="str">
+        <v>CBOE Volatility Index</v>
       </c>
       <c r="G59" t="str">
-        <v>composite</v>
+        <v>yfinance</v>
       </c>
       <c r="H59" t="str">
-        <v>TRUMP</v>
+        <v>^VIX</v>
       </c>
       <c r="I59" t="str">
         <v>lognormal</v>
       </c>
       <c r="J59">
-        <v>1E-4</v>
+        <v>-1E-4</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" t="str">
-        <v>FED</v>
+        <v>VXX</v>
       </c>
       <c r="B60" t="str">
-        <v>Theme</v>
+        <v>Vol</v>
       </c>
       <c r="C60" t="str">
         <v>USD</v>
       </c>
       <c r="D60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E60">
-        <v>1</v>
-      </c>
-      <c r="F60">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="F60" t="str">
+        <v>VIX Short-Term Futures ETN</v>
       </c>
       <c r="G60" t="str">
-        <v>composite</v>
+        <v>yfinance</v>
       </c>
       <c r="H60" t="str">
-        <v>FED</v>
+        <v>VXX</v>
       </c>
       <c r="I60" t="str">
         <v>lognormal</v>
       </c>
       <c r="J60">
-        <v>1E-4</v>
+        <v>-1E-4</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" t="str">
-        <v>AI</v>
+        <v>^VIX3M</v>
       </c>
       <c r="B61" t="str">
-        <v>Theme</v>
+        <v>Vol</v>
       </c>
       <c r="C61" t="str">
         <v>USD</v>
       </c>
       <c r="D61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E61">
-        <v>1</v>
-      </c>
-      <c r="F61">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="F61" t="str">
+        <v>CBOE S&amp;P 500 3-Month Volatility</v>
       </c>
       <c r="G61" t="str">
-        <v>composite</v>
+        <v>yfinance</v>
       </c>
       <c r="H61" t="str">
-        <v>AI</v>
+        <v>^VIX3M</v>
       </c>
       <c r="I61" t="str">
         <v>lognormal</v>
       </c>
       <c r="J61">
-        <v>1E-4</v>
+        <v>-1E-4</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" t="str">
-        <v>GEOPOLITICS</v>
+        <v>^MOVE</v>
       </c>
       <c r="B62" t="str">
-        <v>Theme</v>
+        <v>Vol</v>
       </c>
       <c r="C62" t="str">
         <v>USD</v>
       </c>
       <c r="D62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E62">
-        <v>1</v>
-      </c>
-      <c r="F62">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="F62" t="str">
+        <v>ICE BofAML MOVE Index</v>
       </c>
       <c r="G62" t="str">
-        <v>composite</v>
+        <v>yfinance</v>
       </c>
       <c r="H62" t="str">
-        <v>GEOPOLITICS</v>
+        <v>^MOVE</v>
       </c>
       <c r="I62" t="str">
         <v>lognormal</v>
       </c>
       <c r="J62">
-        <v>1E-4</v>
+        <v>-1E-4</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" t="str">
-        <v>2s10s</v>
+        <v>TRUMP</v>
       </c>
       <c r="B63" t="str">
         <v>Theme</v>
@@ -7638,12 +7869,204 @@
         <v>composite</v>
       </c>
       <c r="H63" t="str">
-        <v>2s10s</v>
+        <v>TRUMP</v>
       </c>
       <c r="I63" t="str">
         <v>lognormal</v>
       </c>
       <c r="J63">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A64" t="str">
+        <v>FED</v>
+      </c>
+      <c r="B64" t="str">
+        <v>Theme</v>
+      </c>
+      <c r="C64" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64" t="str">
+        <v>composite</v>
+      </c>
+      <c r="H64" t="str">
+        <v>FED</v>
+      </c>
+      <c r="I64" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J64">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A65" t="str">
+        <v>AI</v>
+      </c>
+      <c r="B65" t="str">
+        <v>Theme</v>
+      </c>
+      <c r="C65" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65" t="str">
+        <v>composite</v>
+      </c>
+      <c r="H65" t="str">
+        <v>AI</v>
+      </c>
+      <c r="I65" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J65">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A66" t="str">
+        <v>GEOPOLITICS</v>
+      </c>
+      <c r="B66" t="str">
+        <v>Theme</v>
+      </c>
+      <c r="C66" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66" t="str">
+        <v>composite</v>
+      </c>
+      <c r="H66" t="str">
+        <v>GEOPOLITICS</v>
+      </c>
+      <c r="I66" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J66">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A67" t="str">
+        <v>2s10s</v>
+      </c>
+      <c r="B67" t="str">
+        <v>Theme</v>
+      </c>
+      <c r="C67" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67" t="str">
+        <v>composite</v>
+      </c>
+      <c r="H67" t="str">
+        <v>2s10s</v>
+      </c>
+      <c r="I67" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J67">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A68" t="str">
+        <v>XLPXLY</v>
+      </c>
+      <c r="B68" t="str">
+        <v>Theme</v>
+      </c>
+      <c r="C68" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68" t="str">
+        <v>composite</v>
+      </c>
+      <c r="H68" t="str">
+        <v>XLPXLY</v>
+      </c>
+      <c r="I68" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J68">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A69" t="str">
+        <v>TRADEWAR</v>
+      </c>
+      <c r="B69" t="str">
+        <v>Theme</v>
+      </c>
+      <c r="C69" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69" t="str">
+        <v>composite</v>
+      </c>
+      <c r="H69" t="str">
+        <v>TRADEWAR</v>
+      </c>
+      <c r="I69" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J69">
         <v>1E-4</v>
       </c>
     </row>
@@ -7872,7 +8295,7 @@
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1A08F2F-299B-47F7-8064-36693758F4E3}">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:E59"/>
+  <dimension ref="A1:E63"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -7902,11 +8325,11 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="str" cm="1">
-        <f t="array" ref="A2:A59">_xlfn._xlws.FILTER(data[factor_name],data[Active]*NOT(data[composite]))</f>
+        <f t="array" ref="A2:A63">_xlfn._xlws.FILTER(data[factor_name],data[Active]*NOT(data[composite]))</f>
         <v>SPY</v>
       </c>
       <c r="B2" t="str" cm="1">
-        <f t="array" ref="B2:E59">INDEX(data[],_xlfn.XMATCH(_xlfn.ANCHORARRAY(A2),data[factor_name]),_xlfn.XMATCH(B1:E1,data[#Headers]))</f>
+        <f t="array" ref="B2:E63">INDEX(data[],_xlfn.XMATCH(_xlfn.ANCHORARRAY(A2),data[factor_name]),_xlfn.XMATCH(B1:E1,data[#Headers]))</f>
         <v>Equities</v>
       </c>
       <c r="C2" t="str">
@@ -8805,86 +9228,154 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="str">
-        <v>FXE</v>
+        <v>DX-Y.NYB</v>
       </c>
       <c r="B55" t="str">
         <v>Currencies</v>
       </c>
       <c r="C55" t="str">
-        <v>EUR</v>
+        <v>USD</v>
       </c>
       <c r="D55">
         <v>0</v>
       </c>
-      <c r="E55" t="str">
-        <v>Invesco CurrencyShares Euro Trust</v>
+      <c r="E55">
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="str">
-        <v>FXY</v>
+        <v>FXE</v>
       </c>
       <c r="B56" t="str">
         <v>Currencies</v>
       </c>
       <c r="C56" t="str">
-        <v>JPY</v>
+        <v>EUR</v>
       </c>
       <c r="D56">
         <v>0</v>
       </c>
       <c r="E56" t="str">
-        <v>Invesco CurrencyShares Japanese Yen Trust</v>
+        <v>Invesco CurrencyShares Euro Trust</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="str">
-        <v>^VIX</v>
+        <v>FXY</v>
       </c>
       <c r="B57" t="str">
-        <v>Vol</v>
+        <v>Currencies</v>
       </c>
       <c r="C57" t="str">
-        <v>USD</v>
+        <v>JPY</v>
       </c>
       <c r="D57">
         <v>0</v>
       </c>
       <c r="E57" t="str">
-        <v>CBOE Volatility Index</v>
+        <v>Invesco CurrencyShares Japanese Yen Trust</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="str">
-        <v>^MOVE</v>
+        <v>FXF</v>
       </c>
       <c r="B58" t="str">
-        <v>Vol</v>
+        <v>Currencies</v>
       </c>
       <c r="C58" t="str">
-        <v>USD</v>
+        <v>JPY</v>
       </c>
       <c r="D58">
         <v>0</v>
       </c>
       <c r="E58" t="str">
-        <v>ICE BofAML MOVE Index</v>
+        <v>Invesco CurrencyShares Swiss Franc Trust</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="str">
-        <v>MWTIX</v>
+        <v>^VIX</v>
       </c>
       <c r="B59" t="str">
-        <v>Portfolio</v>
+        <v>Vol</v>
       </c>
       <c r="C59" t="str">
         <v>USD</v>
       </c>
       <c r="D59">
-        <v>1</v>
-      </c>
-      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="E59" t="str">
+        <v>CBOE Volatility Index</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" t="str">
+        <v>VXX</v>
+      </c>
+      <c r="B60" t="str">
+        <v>Vol</v>
+      </c>
+      <c r="C60" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60" t="str">
+        <v>VIX Short-Term Futures ETN</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" t="str">
+        <v>^VIX3M</v>
+      </c>
+      <c r="B61" t="str">
+        <v>Vol</v>
+      </c>
+      <c r="C61" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61" t="str">
+        <v>CBOE S&amp;P 500 3-Month Volatility</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" t="str">
+        <v>^MOVE</v>
+      </c>
+      <c r="B62" t="str">
+        <v>Vol</v>
+      </c>
+      <c r="C62" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62" t="str">
+        <v>ICE BofAML MOVE Index</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" t="str">
+        <v>MWTIX</v>
+      </c>
+      <c r="B63" t="str">
+        <v>Portfolio</v>
+      </c>
+      <c r="C63" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63">
         <v>0</v>
       </c>
     </row>
@@ -13760,7 +14251,7 @@
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C64" t="s">
         <v>69</v>
@@ -13787,7 +14278,7 @@
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -14094,7 +14585,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7A5BD3C-985E-4AF9-B99B-18E2DCAB8A90}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
@@ -14116,7 +14607,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="str" cm="1">
-        <f t="array" ref="A2:C14">composities[]</f>
+        <f t="array" ref="A2:C22">composities[]</f>
         <v>TRUMP</v>
       </c>
       <c r="B2" t="str">
@@ -14256,6 +14747,94 @@
       </c>
       <c r="C14">
         <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="str">
+        <v>XLPXLY</v>
+      </c>
+      <c r="B15" t="str">
+        <v>XLP</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="str">
+        <v>XLPXLY</v>
+      </c>
+      <c r="B16" t="str">
+        <v>XLY</v>
+      </c>
+      <c r="C16">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="str">
+        <v>TRADEWAR</v>
+      </c>
+      <c r="B17" t="str">
+        <v>GLD</v>
+      </c>
+      <c r="C17">
+        <v>0.20547945205479451</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="str">
+        <v>TRADEWAR</v>
+      </c>
+      <c r="B18" t="str">
+        <v>FXY</v>
+      </c>
+      <c r="C18">
+        <v>0.29702970297029702</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="str">
+        <v>TRADEWAR</v>
+      </c>
+      <c r="B19" t="str">
+        <v>FXF</v>
+      </c>
+      <c r="C19">
+        <v>0.36585365853658536</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="str">
+        <v>TRADEWAR</v>
+      </c>
+      <c r="B20" t="str">
+        <v>^VIX3M</v>
+      </c>
+      <c r="C20">
+        <v>-3.7499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="str">
+        <v>TRADEWAR</v>
+      </c>
+      <c r="B21" t="str">
+        <v>XLP</v>
+      </c>
+      <c r="C21">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="str">
+        <v>TRADEWAR</v>
+      </c>
+      <c r="B22" t="str">
+        <v>XLY</v>
+      </c>
+      <c r="C22">
+        <v>-0.15</v>
       </c>
     </row>
   </sheetData>
@@ -14266,19 +14845,22 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75C34FC6-78FE-492E-BECF-2EB9A04778A9}">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:Q14"/>
+  <dimension ref="A1:W31"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.44140625" customWidth="1"/>
     <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="9"/>
+    <col min="8" max="8" width="8.88671875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>449</v>
       </c>
@@ -14288,8 +14870,14 @@
       <c r="C1" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>435</v>
+      </c>
+      <c r="E1" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>430</v>
       </c>
@@ -14299,24 +14887,24 @@
       <c r="C2">
         <v>1.5</v>
       </c>
-      <c r="E2" t="b" cm="1">
-        <f t="array" aca="1" ref="E2:E14" ca="1">composities[portfolio_name]&lt;&gt;OFFSET(composities[portfolio_name],-1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="K2" t="b" cm="1">
+        <f t="array" aca="1" ref="K2:K22" ca="1">composities[portfolio_name]&lt;&gt;OFFSET(composities[portfolio_name],-1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="R2" t="s">
         <v>430</v>
       </c>
-      <c r="M2" t="s">
+      <c r="S2" t="s">
         <v>433</v>
       </c>
-      <c r="P2" t="s">
+      <c r="V2" t="s">
         <v>421</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="W2" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>430</v>
       </c>
@@ -14326,21 +14914,21 @@
       <c r="C3">
         <v>-1</v>
       </c>
-      <c r="E3" t="b">
+      <c r="K3" t="b">
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="K3" t="s">
+      <c r="Q3" t="s">
         <v>175</v>
       </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3" t="s">
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>430</v>
       </c>
@@ -14350,24 +14938,24 @@
       <c r="C4">
         <v>1.5</v>
       </c>
-      <c r="E4" t="b">
+      <c r="K4" t="b">
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="K4" t="s">
+      <c r="Q4" t="s">
         <v>431</v>
       </c>
-      <c r="L4">
+      <c r="R4">
         <v>-1</v>
       </c>
-      <c r="M4" t="s">
+      <c r="S4" t="s">
         <v>434</v>
       </c>
-      <c r="N4" t="s">
+      <c r="T4" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>430</v>
       </c>
@@ -14377,21 +14965,21 @@
       <c r="C5">
         <v>-1</v>
       </c>
-      <c r="E5" t="b">
+      <c r="K5" t="b">
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="K5" t="s">
+      <c r="Q5" t="s">
         <v>5</v>
       </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5" t="s">
+      <c r="R5">
+        <v>1</v>
+      </c>
+      <c r="S5" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>439</v>
       </c>
@@ -14401,21 +14989,21 @@
       <c r="C6">
         <v>1</v>
       </c>
-      <c r="E6" t="b">
+      <c r="K6" t="b">
         <f ca="1"/>
         <v>1</v>
       </c>
-      <c r="K6" t="s">
+      <c r="Q6" t="s">
         <v>8</v>
       </c>
-      <c r="L6">
+      <c r="R6">
         <v>-1</v>
       </c>
-      <c r="M6" t="s">
+      <c r="S6" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>439</v>
       </c>
@@ -14425,24 +15013,24 @@
       <c r="C7">
         <v>1</v>
       </c>
-      <c r="E7" t="b">
+      <c r="K7" t="b">
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="K7" t="s">
+      <c r="Q7" t="s">
         <v>236</v>
       </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7" t="s">
+      <c r="R7">
+        <v>1</v>
+      </c>
+      <c r="S7" t="s">
         <v>435</v>
       </c>
-      <c r="N7" t="s">
+      <c r="T7" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>421</v>
       </c>
@@ -14452,27 +15040,27 @@
       <c r="C8">
         <v>1</v>
       </c>
-      <c r="E8" t="b">
+      <c r="K8" t="b">
         <f ca="1"/>
         <v>1</v>
       </c>
-      <c r="H8" t="s">
+      <c r="N8" t="s">
         <v>403</v>
       </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="K8" t="s">
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="s">
         <v>238</v>
       </c>
-      <c r="L8">
+      <c r="R8">
         <v>-1</v>
       </c>
-      <c r="M8" t="s">
+      <c r="S8" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>421</v>
       </c>
@@ -14482,24 +15070,24 @@
       <c r="C9">
         <v>0.25</v>
       </c>
-      <c r="E9" t="b">
+      <c r="K9" t="b">
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="H9" t="s">
+      <c r="N9" t="s">
         <v>7</v>
       </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="K9" t="s">
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="s">
         <v>135</v>
       </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>421</v>
       </c>
@@ -14509,27 +15097,27 @@
       <c r="C10">
         <v>-0.25</v>
       </c>
-      <c r="E10" t="b">
+      <c r="K10" t="b">
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="H10" t="s">
+      <c r="N10" t="s">
         <v>5</v>
       </c>
-      <c r="I10">
+      <c r="O10">
         <v>-1</v>
       </c>
-      <c r="K10" t="s">
+      <c r="Q10" t="s">
         <v>49</v>
       </c>
-      <c r="L10">
+      <c r="R10">
         <v>-1</v>
       </c>
-      <c r="N10" t="s">
+      <c r="T10" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>450</v>
       </c>
@@ -14539,18 +15127,18 @@
       <c r="C11">
         <v>0.75</v>
       </c>
-      <c r="E11" t="b">
+      <c r="K11" t="b">
         <f ca="1"/>
         <v>1</v>
       </c>
-      <c r="K11" t="s">
+      <c r="Q11" t="s">
         <v>403</v>
       </c>
-      <c r="P11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="V11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>450</v>
       </c>
@@ -14560,18 +15148,18 @@
       <c r="C12">
         <v>0.25</v>
       </c>
-      <c r="E12" t="b">
+      <c r="K12" t="b">
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="K12" t="s">
+      <c r="Q12" t="s">
         <v>438</v>
       </c>
-      <c r="P12">
+      <c r="V12">
         <v>-1</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>451</v>
       </c>
@@ -14579,21 +15167,21 @@
         <v>51</v>
       </c>
       <c r="C13">
-        <f>-C14*F14/F13</f>
+        <f>-C14*L14/L13</f>
         <v>-3.8633879781420766</v>
       </c>
-      <c r="E13" t="b">
+      <c r="K13" t="b">
         <f ca="1"/>
         <v>1</v>
       </c>
-      <c r="F13">
+      <c r="L13">
         <v>1.83</v>
       </c>
-      <c r="K13" t="s">
+      <c r="Q13" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>451</v>
       </c>
@@ -14603,25 +15191,339 @@
       <c r="C14">
         <v>1</v>
       </c>
-      <c r="E14" t="b">
+      <c r="K14" t="b">
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="F14">
+      <c r="L14">
         <v>7.07</v>
       </c>
-      <c r="G14">
-        <f>F14/F13</f>
+      <c r="M14">
+        <f>L14/L13</f>
         <v>3.8633879781420766</v>
       </c>
-      <c r="K14" t="s">
+      <c r="Q14" t="s">
         <v>441</v>
       </c>
     </row>
+    <row r="15" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="9" t="s">
+        <v>505</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="C15" s="12">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="G15" t="s">
+        <v>505</v>
+      </c>
+      <c r="H15" s="9">
+        <v>22</v>
+      </c>
+      <c r="K15" s="9" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="9" t="s">
+        <v>505</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="C16" s="12">
+        <v>-1</v>
+      </c>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="H16" s="9">
+        <v>16</v>
+      </c>
+      <c r="K16" s="9" t="b">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="9" t="s">
+        <v>502</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="12" cm="1">
+        <f t="array" ref="C17">E17/D17*$F$17/SUM(ABS(($E$17:$E$21)))</f>
+        <v>0.20547945205479451</v>
+      </c>
+      <c r="D17" s="9">
+        <v>14.6</v>
+      </c>
+      <c r="E17" s="9">
+        <v>1</v>
+      </c>
+      <c r="F17" s="13">
+        <v>15</v>
+      </c>
+      <c r="J17" s="9" cm="1">
+        <f t="array" ref="J17:J20">C17:C20*D17:D20</f>
+        <v>2.9999999999999996</v>
+      </c>
+      <c r="K17" s="9" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="9" t="s">
+        <v>502</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="12">
+        <f>E18/D18*$F$17/COUNT($E$17:$E$21)</f>
+        <v>0.29702970297029702</v>
+      </c>
+      <c r="D18" s="9">
+        <v>10.1</v>
+      </c>
+      <c r="E18" s="9">
+        <v>1</v>
+      </c>
+      <c r="J18" s="9">
+        <v>2.9999999999999996</v>
+      </c>
+      <c r="K18" s="9" t="b">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="9" t="s">
+        <v>502</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>499</v>
+      </c>
+      <c r="C19" s="12">
+        <f>E19/D19*$F$17/COUNT($E$17:$E$21)</f>
+        <v>0.36585365853658536</v>
+      </c>
+      <c r="D19" s="9">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="E19" s="9">
+        <v>1</v>
+      </c>
+      <c r="J19" s="9">
+        <v>2.9999999999999996</v>
+      </c>
+      <c r="K19" s="9" t="b">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="M19" s="9" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="9" t="s">
+        <v>502</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>497</v>
+      </c>
+      <c r="C20" s="12">
+        <f>E20/D20*$F$17/COUNT($E$17:$E$21)</f>
+        <v>-3.7499999999999999E-2</v>
+      </c>
+      <c r="D20" s="9">
+        <v>80</v>
+      </c>
+      <c r="E20" s="9">
+        <v>-1</v>
+      </c>
+      <c r="J20" s="9">
+        <v>-3</v>
+      </c>
+      <c r="K20" s="9" t="b">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" s="9" t="s">
+        <v>502</v>
+      </c>
+      <c r="B21" s="9" t="str">
+        <f t="shared" ref="B21:B22" si="0">B15</f>
+        <v>XLP</v>
+      </c>
+      <c r="C21" s="12">
+        <f>E21/D21*$F$17/COUNT($E$17:$E$21)</f>
+        <v>0.15</v>
+      </c>
+      <c r="D21">
+        <v>20</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="K21" t="b">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" s="9" t="s">
+        <v>502</v>
+      </c>
+      <c r="B22" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>XLY</v>
+      </c>
+      <c r="C22" s="12">
+        <f>-C21</f>
+        <v>-0.15</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="K22" t="b">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="9"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D24" s="9"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D25" s="9"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C26" s="9"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C27" s="9"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>506</v>
+      </c>
+      <c r="B28" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" s="8">
+        <f>E28/D28</f>
+        <v>0.20547945205479454</v>
+      </c>
+      <c r="D28">
+        <v>14.6</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="J28" cm="1">
+        <f t="array" ref="J28:J31">C28:C31*D28:D31</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>506</v>
+      </c>
+      <c r="B29" t="s">
+        <v>72</v>
+      </c>
+      <c r="C29" s="12">
+        <f>E29/D29</f>
+        <v>0.29702970297029702</v>
+      </c>
+      <c r="D29">
+        <v>10.1</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="J29">
+        <v>2.9999999999999996</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>506</v>
+      </c>
+      <c r="B30" t="s">
+        <v>499</v>
+      </c>
+      <c r="C30" s="12">
+        <f>E30/D30</f>
+        <v>0.36585365853658541</v>
+      </c>
+      <c r="D30">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="J30">
+        <v>3</v>
+      </c>
+      <c r="M30" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>506</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>497</v>
+      </c>
+      <c r="C31" s="12">
+        <f>E31/D31</f>
+        <v>-0.1125</v>
+      </c>
+      <c r="D31">
+        <v>80</v>
+      </c>
+      <c r="E31">
+        <f>-SUM(E28:E30)</f>
+        <v>-9</v>
+      </c>
+      <c r="J31">
+        <v>-9</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:C14">
-    <cfRule type="expression" dxfId="3" priority="2">
-      <formula>$E2</formula>
+  <conditionalFormatting sqref="A2:C14 A15:A16 C15:C16 B15 A28:C31">
+    <cfRule type="expression" dxfId="8" priority="5">
+      <formula>$K2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B22:C22 B21">
+    <cfRule type="expression" dxfId="7" priority="21">
+      <formula>$K19</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A23:C23">
+    <cfRule type="expression" dxfId="6" priority="23">
+      <formula>$K16</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A17:C17 C21 B18:C20 A18:A22">
+    <cfRule type="expression" dxfId="5" priority="1">
+      <formula>$K17</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14635,13 +15537,13 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C29859C-7358-4E2F-B5CC-7696F1DAC449}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:V81"/>
+  <dimension ref="A1:V87"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B22" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B60" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B35" sqref="B35"/>
+      <selection pane="bottomRight" activeCell="G86" sqref="G86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14705,7 +15607,7 @@
       <c r="P1" s="5" t="s">
         <v>465</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="Q1" s="5" t="s">
         <v>492</v>
       </c>
     </row>
@@ -14761,10 +15663,10 @@
         <f>data[[#This Row],[factor_name]]</f>
         <v>SPY</v>
       </c>
-      <c r="Q2" s="8"/>
+      <c r="Q2" s="4"/>
       <c r="R2" s="2"/>
       <c r="S2" t="b" cm="1">
-        <f t="array" ref="S2:S81">MOD(_xlfn.SEQUENCE(ROWS(data[])),3)=1</f>
+        <f t="array" ref="S2:S87">MOD(_xlfn.SEQUENCE(ROWS(data[])),3)=1</f>
         <v>1</v>
       </c>
     </row>
@@ -14820,7 +15722,7 @@
         <f>data[[#This Row],[factor_name]]</f>
         <v>IWM</v>
       </c>
-      <c r="Q3" s="8"/>
+      <c r="Q3" s="4"/>
       <c r="S3" t="b">
         <v>0</v>
       </c>
@@ -14880,7 +15782,7 @@
         <f>data[[#This Row],[factor_name]]</f>
         <v>MDY</v>
       </c>
-      <c r="Q4" s="8"/>
+      <c r="Q4" s="4"/>
       <c r="S4" t="b">
         <v>0</v>
       </c>
@@ -14933,7 +15835,7 @@
         <f>data[[#This Row],[factor_name]]</f>
         <v>RSP</v>
       </c>
-      <c r="Q5" s="8"/>
+      <c r="Q5" s="4"/>
       <c r="S5" t="b">
         <v>1</v>
       </c>
@@ -14993,7 +15895,7 @@
         <f>data[[#This Row],[factor_name]]</f>
         <v>QQQ</v>
       </c>
-      <c r="Q6" s="8"/>
+      <c r="Q6" s="4"/>
       <c r="S6" t="b">
         <v>0</v>
       </c>
@@ -15050,7 +15952,7 @@
         <f>data[[#This Row],[factor_name]]</f>
         <v>DIA</v>
       </c>
-      <c r="Q7" s="8"/>
+      <c r="Q7" s="4"/>
       <c r="S7" t="b">
         <v>0</v>
       </c>
@@ -15103,7 +16005,7 @@
         <f>data[[#This Row],[factor_name]]</f>
         <v>XLK</v>
       </c>
-      <c r="Q8" s="8"/>
+      <c r="Q8" s="4"/>
       <c r="S8" t="b">
         <v>1</v>
       </c>
@@ -15156,7 +16058,7 @@
         <f>data[[#This Row],[factor_name]]</f>
         <v>XLI</v>
       </c>
-      <c r="Q9" s="8"/>
+      <c r="Q9" s="4"/>
       <c r="S9" t="b">
         <v>0</v>
       </c>
@@ -15209,7 +16111,7 @@
         <f>data[[#This Row],[factor_name]]</f>
         <v>XLF</v>
       </c>
-      <c r="Q10" s="8"/>
+      <c r="Q10" s="4"/>
       <c r="S10" t="b">
         <v>0</v>
       </c>
@@ -15262,7 +16164,7 @@
         <f>data[[#This Row],[factor_name]]</f>
         <v>KRE</v>
       </c>
-      <c r="Q11" s="8"/>
+      <c r="Q11" s="4"/>
       <c r="S11" t="b">
         <v>1</v>
       </c>
@@ -15315,7 +16217,7 @@
         <f>data[[#This Row],[factor_name]]</f>
         <v>XLC</v>
       </c>
-      <c r="Q12" s="8"/>
+      <c r="Q12" s="4"/>
       <c r="S12" t="b">
         <v>0</v>
       </c>
@@ -15368,7 +16270,7 @@
         <f>data[[#This Row],[factor_name]]</f>
         <v>XLE</v>
       </c>
-      <c r="Q13" s="8"/>
+      <c r="Q13" s="4"/>
       <c r="S13" t="b">
         <v>0</v>
       </c>
@@ -15421,7 +16323,7 @@
         <f>data[[#This Row],[factor_name]]</f>
         <v>XLY</v>
       </c>
-      <c r="Q14" s="8"/>
+      <c r="Q14" s="4"/>
       <c r="S14" t="b">
         <v>1</v>
       </c>
@@ -15474,7 +16376,7 @@
         <f>data[[#This Row],[factor_name]]</f>
         <v>XLB</v>
       </c>
-      <c r="Q15" s="8"/>
+      <c r="Q15" s="4"/>
       <c r="S15" t="b">
         <v>0</v>
       </c>
@@ -15527,7 +16429,7 @@
         <f>data[[#This Row],[factor_name]]</f>
         <v>XLV</v>
       </c>
-      <c r="Q16" s="8"/>
+      <c r="Q16" s="4"/>
       <c r="S16" t="b">
         <v>0</v>
       </c>
@@ -15580,7 +16482,7 @@
         <f>data[[#This Row],[factor_name]]</f>
         <v>XLU</v>
       </c>
-      <c r="Q17" s="8"/>
+      <c r="Q17" s="4"/>
       <c r="S17" t="b">
         <v>1</v>
       </c>
@@ -15633,7 +16535,7 @@
         <f>data[[#This Row],[factor_name]]</f>
         <v>XLP</v>
       </c>
-      <c r="Q18" s="8"/>
+      <c r="Q18" s="4"/>
       <c r="S18" t="b">
         <v>0</v>
       </c>
@@ -15684,7 +16586,7 @@
         <f>data[[#This Row],[factor_name]]</f>
         <v>IYR</v>
       </c>
-      <c r="Q19" s="8"/>
+      <c r="Q19" s="4"/>
       <c r="S19" t="b">
         <v>0</v>
       </c>
@@ -15735,7 +16637,7 @@
         <f>data[[#This Row],[factor_name]]</f>
         <v>VNQ</v>
       </c>
-      <c r="Q20" s="8"/>
+      <c r="Q20" s="4"/>
       <c r="S20" t="b">
         <v>1</v>
       </c>
@@ -15788,7 +16690,7 @@
         <f>data[[#This Row],[factor_name]]</f>
         <v>AIQ</v>
       </c>
-      <c r="Q21" s="8"/>
+      <c r="Q21" s="4"/>
       <c r="S21" t="b">
         <v>0</v>
       </c>
@@ -15839,7 +16741,7 @@
         <f>data[[#This Row],[factor_name]]</f>
         <v>ICLN</v>
       </c>
-      <c r="Q22" s="8"/>
+      <c r="Q22" s="4"/>
       <c r="S22" t="b">
         <v>0</v>
       </c>
@@ -15892,7 +16794,7 @@
         <f>data[[#This Row],[factor_name]]</f>
         <v>PFF</v>
       </c>
-      <c r="Q23" s="8"/>
+      <c r="Q23" s="4"/>
       <c r="S23" t="b">
         <v>1</v>
       </c>
@@ -15949,7 +16851,7 @@
         <f>data[[#This Row],[factor_name]]</f>
         <v>FEZ</v>
       </c>
-      <c r="Q24" s="8"/>
+      <c r="Q24" s="4"/>
       <c r="S24" t="b">
         <v>0</v>
       </c>
@@ -16002,7 +16904,7 @@
         <f>data[[#This Row],[factor_name]]</f>
         <v>SX7E</v>
       </c>
-      <c r="Q25" s="8"/>
+      <c r="Q25" s="4"/>
       <c r="S25" t="b">
         <v>0</v>
       </c>
@@ -16055,7 +16957,7 @@
         <f>data[[#This Row],[factor_name]]</f>
         <v>EWU</v>
       </c>
-      <c r="Q26" s="8"/>
+      <c r="Q26" s="4"/>
       <c r="S26" t="b">
         <v>1</v>
       </c>
@@ -16112,7 +17014,7 @@
         <f>data[[#This Row],[factor_name]]</f>
         <v>DAX</v>
       </c>
-      <c r="Q27" s="8"/>
+      <c r="Q27" s="4"/>
       <c r="S27" t="b">
         <v>0</v>
       </c>
@@ -16165,7 +17067,7 @@
         <f>data[[#This Row],[factor_name]]</f>
         <v>EWC</v>
       </c>
-      <c r="Q28" s="8"/>
+      <c r="Q28" s="4"/>
       <c r="S28" t="b">
         <v>0</v>
       </c>
@@ -16218,7 +17120,7 @@
         <f>data[[#This Row],[factor_name]]</f>
         <v>FTSEMIB.MI</v>
       </c>
-      <c r="Q29" s="8"/>
+      <c r="Q29" s="4"/>
       <c r="S29" t="b">
         <v>1</v>
       </c>
@@ -16275,7 +17177,7 @@
         <f>data[[#This Row],[factor_name]]</f>
         <v>CAC</v>
       </c>
-      <c r="Q30" s="8"/>
+      <c r="Q30" s="4"/>
       <c r="S30" t="b">
         <v>0</v>
       </c>
@@ -16328,7 +17230,7 @@
         <f>data[[#This Row],[factor_name]]</f>
         <v>EWI</v>
       </c>
-      <c r="Q31" s="8"/>
+      <c r="Q31" s="4"/>
       <c r="S31" t="b">
         <v>0</v>
       </c>
@@ -16385,7 +17287,7 @@
         <f>data[[#This Row],[factor_name]]</f>
         <v>^IBEX</v>
       </c>
-      <c r="Q32" s="8"/>
+      <c r="Q32" s="4"/>
       <c r="S32" t="b">
         <v>1</v>
       </c>
@@ -16438,7 +17340,7 @@
         <f>data[[#This Row],[factor_name]]</f>
         <v>EWP</v>
       </c>
-      <c r="Q33" s="8"/>
+      <c r="Q33" s="4"/>
       <c r="S33" t="b">
         <v>0</v>
       </c>
@@ -16495,7 +17397,7 @@
         <f>data[[#This Row],[factor_name]]</f>
         <v>^N225</v>
       </c>
-      <c r="Q34" s="8"/>
+      <c r="Q34" s="4"/>
       <c r="S34" t="b">
         <v>0</v>
       </c>
@@ -16552,7 +17454,7 @@
         <f>data[[#This Row],[factor_name]]</f>
         <v>TPX</v>
       </c>
-      <c r="Q35" s="8" t="s">
+      <c r="Q35" s="4" t="s">
         <v>491</v>
       </c>
       <c r="S35" t="b">
@@ -16609,7 +17511,7 @@
         <f>data[[#This Row],[factor_name]]</f>
         <v>FXI</v>
       </c>
-      <c r="Q36" s="8"/>
+      <c r="Q36" s="4"/>
       <c r="S36" t="b">
         <v>0</v>
       </c>
@@ -16664,7 +17566,7 @@
         <f>data[[#This Row],[factor_name]]</f>
         <v>ASHR</v>
       </c>
-      <c r="Q37" s="8"/>
+      <c r="Q37" s="4"/>
       <c r="S37" t="b">
         <v>0</v>
       </c>
@@ -16717,7 +17619,7 @@
         <f>data[[#This Row],[factor_name]]</f>
         <v>KWEB</v>
       </c>
-      <c r="Q38" s="8"/>
+      <c r="Q38" s="4"/>
       <c r="S38" t="b">
         <v>1</v>
       </c>
@@ -16766,7 +17668,7 @@
         <f>data[[#This Row],[factor_name]]</f>
         <v>EEM</v>
       </c>
-      <c r="Q39" s="8"/>
+      <c r="Q39" s="4"/>
       <c r="S39" t="b">
         <v>0</v>
       </c>
@@ -16821,7 +17723,7 @@
         <f>data[[#This Row],[factor_name]]</f>
         <v>LQD</v>
       </c>
-      <c r="Q40" s="8"/>
+      <c r="Q40" s="4"/>
       <c r="S40" t="b">
         <v>0</v>
       </c>
@@ -16874,7 +17776,7 @@
         <f>data[[#This Row],[factor_name]]</f>
         <v>BSV</v>
       </c>
-      <c r="Q41" s="8"/>
+      <c r="Q41" s="4"/>
       <c r="S41" t="b">
         <v>1</v>
       </c>
@@ -16929,7 +17831,7 @@
         <f>data[[#This Row],[factor_name]]</f>
         <v>HYG</v>
       </c>
-      <c r="Q42" s="8"/>
+      <c r="Q42" s="4"/>
       <c r="S42" t="b">
         <v>0</v>
       </c>
@@ -16980,7 +17882,7 @@
         <f>data[[#This Row],[factor_name]]</f>
         <v>LQDH</v>
       </c>
-      <c r="Q43" s="8"/>
+      <c r="Q43" s="4"/>
       <c r="S43" t="b">
         <v>0</v>
       </c>
@@ -17031,7 +17933,7 @@
         <f>data[[#This Row],[factor_name]]</f>
         <v>HYGH</v>
       </c>
-      <c r="Q44" s="8"/>
+      <c r="Q44" s="4"/>
       <c r="S44" t="b">
         <v>1</v>
       </c>
@@ -17080,7 +17982,7 @@
         <f>data[[#This Row],[factor_name]]</f>
         <v>AGG</v>
       </c>
-      <c r="Q45" s="8"/>
+      <c r="Q45" s="4"/>
       <c r="S45" t="b">
         <v>0</v>
       </c>
@@ -17131,7 +18033,7 @@
         <f>data[[#This Row],[factor_name]]</f>
         <v>^TNX</v>
       </c>
-      <c r="Q46" s="8"/>
+      <c r="Q46" s="4"/>
       <c r="S46" t="b">
         <v>0</v>
       </c>
@@ -17186,7 +18088,7 @@
         <f>data[[#This Row],[factor_name]]</f>
         <v>SHY</v>
       </c>
-      <c r="Q47" s="8"/>
+      <c r="Q47" s="4"/>
       <c r="S47" t="b">
         <v>1</v>
       </c>
@@ -17241,7 +18143,7 @@
         <f>data[[#This Row],[factor_name]]</f>
         <v>IEI</v>
       </c>
-      <c r="Q48" s="8"/>
+      <c r="Q48" s="4"/>
       <c r="S48" t="b">
         <v>0</v>
       </c>
@@ -17296,7 +18198,7 @@
         <f>data[[#This Row],[factor_name]]</f>
         <v>IEF</v>
       </c>
-      <c r="Q49" s="8"/>
+      <c r="Q49" s="4"/>
       <c r="S49" t="b">
         <v>0</v>
       </c>
@@ -17351,7 +18253,7 @@
         <f>data[[#This Row],[factor_name]]</f>
         <v>TLT</v>
       </c>
-      <c r="Q50" s="8"/>
+      <c r="Q50" s="4"/>
       <c r="S50" t="b">
         <v>1</v>
       </c>
@@ -17404,7 +18306,7 @@
         <f>data[[#This Row],[factor_name]]</f>
         <v>TIP</v>
       </c>
-      <c r="Q51" s="8"/>
+      <c r="Q51" s="4"/>
       <c r="S51" t="b">
         <v>0</v>
       </c>
@@ -17450,7 +18352,7 @@
         <f>data[[#This Row],[factor_name]]</f>
         <v>VTIP</v>
       </c>
-      <c r="Q52" s="8"/>
+      <c r="Q52" s="4"/>
       <c r="S52" t="b">
         <v>0</v>
       </c>
@@ -17503,7 +18405,7 @@
         <f>data[[#This Row],[factor_name]]</f>
         <v>MBB</v>
       </c>
-      <c r="Q53" s="8"/>
+      <c r="Q53" s="4"/>
       <c r="S53" t="b">
         <v>1</v>
       </c>
@@ -17556,7 +18458,7 @@
         <f>data[[#This Row],[factor_name]]</f>
         <v>MBTA</v>
       </c>
-      <c r="Q54" s="8"/>
+      <c r="Q54" s="4"/>
       <c r="S54" t="b">
         <v>0</v>
       </c>
@@ -17609,7 +18511,7 @@
         <f>data[[#This Row],[factor_name]]</f>
         <v>AGNC</v>
       </c>
-      <c r="Q55" s="8"/>
+      <c r="Q55" s="4"/>
       <c r="S55" t="b">
         <v>0</v>
       </c>
@@ -17658,7 +18560,7 @@
         <f>data[[#This Row],[factor_name]]</f>
         <v>VMBS</v>
       </c>
-      <c r="Q56" s="8"/>
+      <c r="Q56" s="4"/>
       <c r="S56" t="b">
         <v>1</v>
       </c>
@@ -17707,7 +18609,7 @@
         <f>data[[#This Row],[factor_name]]</f>
         <v>CMBS</v>
       </c>
-      <c r="Q57" s="8"/>
+      <c r="Q57" s="4"/>
       <c r="S57" t="b">
         <v>0</v>
       </c>
@@ -17760,7 +18662,7 @@
         <f>data[[#This Row],[factor_name]]</f>
         <v>EMB</v>
       </c>
-      <c r="Q58" s="8"/>
+      <c r="Q58" s="4"/>
       <c r="S58" t="b">
         <v>0</v>
       </c>
@@ -17809,7 +18711,7 @@
         <f>data[[#This Row],[factor_name]]</f>
         <v>EMHY</v>
       </c>
-      <c r="Q59" s="8"/>
+      <c r="Q59" s="4"/>
       <c r="S59" t="b">
         <v>1</v>
       </c>
@@ -17860,7 +18762,7 @@
         <f>data[[#This Row],[factor_name]]</f>
         <v>CEW</v>
       </c>
-      <c r="Q60" s="8"/>
+      <c r="Q60" s="4"/>
       <c r="S60" t="b">
         <v>0</v>
       </c>
@@ -17913,7 +18815,7 @@
         <f>data[[#This Row],[factor_name]]</f>
         <v>IGOV</v>
       </c>
-      <c r="Q61" s="8"/>
+      <c r="Q61" s="4"/>
       <c r="S61" t="b">
         <v>0</v>
       </c>
@@ -17966,7 +18868,7 @@
         <f>data[[#This Row],[factor_name]]</f>
         <v>GLD</v>
       </c>
-      <c r="Q62" s="8"/>
+      <c r="Q62" s="4"/>
       <c r="S62" t="b">
         <v>1</v>
       </c>
@@ -18019,7 +18921,7 @@
         <f>data[[#This Row],[factor_name]]</f>
         <v>SLV</v>
       </c>
-      <c r="Q63" s="8"/>
+      <c r="Q63" s="4"/>
       <c r="S63" t="b">
         <v>0</v>
       </c>
@@ -18072,7 +18974,7 @@
         <f>data[[#This Row],[factor_name]]</f>
         <v>USO</v>
       </c>
-      <c r="Q64" s="8"/>
+      <c r="Q64" s="4"/>
       <c r="S64" t="b">
         <v>0</v>
       </c>
@@ -18125,7 +19027,7 @@
         <f>data[[#This Row],[factor_name]]</f>
         <v>DBC</v>
       </c>
-      <c r="Q65" s="8"/>
+      <c r="Q65" s="4"/>
       <c r="S65" t="b">
         <v>1</v>
       </c>
@@ -18178,7 +19080,7 @@
         <f>data[[#This Row],[factor_name]]</f>
         <v>UUP</v>
       </c>
-      <c r="Q66" s="8"/>
+      <c r="Q66" s="4"/>
       <c r="S66" t="b">
         <v>0</v>
       </c>
@@ -18188,174 +19090,176 @@
         <v>65</v>
       </c>
       <c r="B67" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="H67" s="4">
+        <v>1</v>
+      </c>
+      <c r="I67" s="4">
+        <v>0</v>
+      </c>
+      <c r="J67" s="4">
+        <v>0</v>
+      </c>
+      <c r="K67" s="4">
+        <v>0</v>
+      </c>
+      <c r="L67" s="4">
+        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+        <v>0</v>
+      </c>
+      <c r="M67" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="N67" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="O67" s="4" cm="1">
+        <f t="array" ref="O67">_xlfn.SWITCH(data[[#This Row],[diffusion_type]],"lognormal",0.0001,"normal",-0.01)*IF(data[[#This Row],[asset_class]]="Vol",-1,1)</f>
+        <v>1E-4</v>
+      </c>
+      <c r="P67" s="4" t="str">
+        <f>data[[#This Row],[factor_name]]</f>
+        <v>DX-Y.NYB</v>
+      </c>
+      <c r="Q67" s="4"/>
+      <c r="S67" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A68" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B68" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C67" s="4" t="s">
+      <c r="C68" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D67" s="4"/>
-      <c r="E67" s="4"/>
-      <c r="F67" s="4" t="s">
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="G67" s="4" t="s">
+      <c r="G68" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="H67" s="4">
-        <v>1</v>
-      </c>
-      <c r="I67" s="4">
-        <v>0</v>
-      </c>
-      <c r="J67" s="4">
-        <v>0</v>
-      </c>
-      <c r="K67" s="4">
-        <v>0</v>
-      </c>
-      <c r="L67" s="4" t="str">
+      <c r="H68" s="4">
+        <v>1</v>
+      </c>
+      <c r="I68" s="4">
+        <v>0</v>
+      </c>
+      <c r="J68" s="4">
+        <v>0</v>
+      </c>
+      <c r="K68" s="4">
+        <v>0</v>
+      </c>
+      <c r="L68" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
         <v>Invesco CurrencyShares Euro Trust</v>
       </c>
-      <c r="M67" s="4" t="s">
+      <c r="M68" s="4" t="s">
         <v>455</v>
       </c>
-      <c r="N67" s="4" t="s">
+      <c r="N68" s="4" t="s">
         <v>454</v>
       </c>
-      <c r="O67" s="4" cm="1">
-        <f t="array" ref="O67">_xlfn.SWITCH(data[[#This Row],[diffusion_type]],"lognormal",0.0001,"normal",-0.01)*IF(data[[#This Row],[asset_class]]="Vol",-1,1)</f>
-        <v>1E-4</v>
-      </c>
-      <c r="P67" s="4" t="str">
+      <c r="O68" s="4" cm="1">
+        <f t="array" ref="O68">_xlfn.SWITCH(data[[#This Row],[diffusion_type]],"lognormal",0.0001,"normal",-0.01)*IF(data[[#This Row],[asset_class]]="Vol",-1,1)</f>
+        <v>1E-4</v>
+      </c>
+      <c r="P68" s="4" t="str">
         <f>data[[#This Row],[factor_name]]</f>
         <v>FXE</v>
       </c>
-      <c r="Q67" s="8"/>
-      <c r="S67" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
+      <c r="Q68" s="4"/>
+      <c r="S68" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
         <v>65</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B69" t="s">
         <v>71</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C69" t="s">
         <v>72</v>
       </c>
-      <c r="F68" t="s">
+      <c r="F69" t="s">
         <v>73</v>
       </c>
-      <c r="G68" t="s">
+      <c r="G69" t="s">
         <v>113</v>
       </c>
-      <c r="H68" s="4">
-        <v>1</v>
-      </c>
-      <c r="I68" s="4">
-        <v>0</v>
-      </c>
-      <c r="J68" s="4">
-        <v>0</v>
-      </c>
-      <c r="K68" s="4">
-        <v>0</v>
-      </c>
-      <c r="L68" s="4" t="str">
+      <c r="H69" s="4">
+        <v>1</v>
+      </c>
+      <c r="I69" s="4">
+        <v>0</v>
+      </c>
+      <c r="J69" s="4">
+        <v>0</v>
+      </c>
+      <c r="K69" s="4">
+        <v>0</v>
+      </c>
+      <c r="L69" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
         <v>Invesco CurrencyShares Japanese Yen Trust</v>
       </c>
-      <c r="M68" s="4" t="s">
+      <c r="M69" s="4" t="s">
         <v>455</v>
       </c>
-      <c r="N68" s="4" t="s">
+      <c r="N69" s="4" t="s">
         <v>454</v>
       </c>
-      <c r="O68" s="4" cm="1">
-        <f t="array" ref="O68">_xlfn.SWITCH(data[[#This Row],[diffusion_type]],"lognormal",0.0001,"normal",-0.01)*IF(data[[#This Row],[asset_class]]="Vol",-1,1)</f>
-        <v>1E-4</v>
-      </c>
-      <c r="P68" s="4" t="str">
+      <c r="O69" s="4" cm="1">
+        <f t="array" ref="O69">_xlfn.SWITCH(data[[#This Row],[diffusion_type]],"lognormal",0.0001,"normal",-0.01)*IF(data[[#This Row],[asset_class]]="Vol",-1,1)</f>
+        <v>1E-4</v>
+      </c>
+      <c r="P69" s="4" t="str">
         <f>data[[#This Row],[factor_name]]</f>
         <v>FXY</v>
       </c>
-      <c r="Q68" s="8"/>
-      <c r="S68" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A69" s="4" t="s">
-        <v>476</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>472</v>
-      </c>
-      <c r="D69" s="4"/>
-      <c r="E69" s="4"/>
-      <c r="F69" s="4" t="s">
-        <v>473</v>
-      </c>
-      <c r="G69" s="4"/>
-      <c r="H69" s="4">
-        <v>1</v>
-      </c>
-      <c r="I69" s="4">
-        <v>0</v>
-      </c>
-      <c r="J69" s="4">
-        <v>0</v>
-      </c>
-      <c r="K69" s="4">
-        <v>0</v>
-      </c>
-      <c r="L69" s="4" t="str">
-        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>CBOE Volatility Index</v>
-      </c>
-      <c r="M69" s="4" t="s">
-        <v>455</v>
-      </c>
-      <c r="N69" s="4" t="s">
-        <v>454</v>
-      </c>
-      <c r="O69" s="4" cm="1">
-        <f t="array" ref="O69">_xlfn.SWITCH(data[[#This Row],[diffusion_type]],"lognormal",0.0001,"normal",-0.01)*IF(data[[#This Row],[asset_class]]="Vol",-1,1)</f>
-        <v>-1E-4</v>
-      </c>
-      <c r="P69" s="4" t="str">
-        <f>data[[#This Row],[factor_name]]</f>
-        <v>^VIX</v>
-      </c>
-      <c r="Q69" s="8"/>
+      <c r="Q69" s="4"/>
       <c r="S69" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A70" s="4" t="s">
-        <v>476</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>484</v>
-      </c>
-      <c r="D70" s="4"/>
-      <c r="E70" s="4"/>
-      <c r="F70" s="4" t="s">
-        <v>474</v>
-      </c>
-      <c r="G70" s="4"/>
+      <c r="A70" t="s">
+        <v>65</v>
+      </c>
+      <c r="B70" t="s">
+        <v>71</v>
+      </c>
+      <c r="C70" t="s">
+        <v>499</v>
+      </c>
+      <c r="F70" t="s">
+        <v>500</v>
+      </c>
+      <c r="G70" t="s">
+        <v>501</v>
+      </c>
       <c r="H70" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I70" s="4">
         <v>0</v>
@@ -18368,7 +19272,7 @@
       </c>
       <c r="L70" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>CBOE VIX VOLATILITY INDEX</v>
+        <v>Invesco CurrencyShares Swiss Franc Trust</v>
       </c>
       <c r="M70" s="4" t="s">
         <v>455</v>
@@ -18378,13 +19282,13 @@
       </c>
       <c r="O70" s="4" cm="1">
         <f t="array" ref="O70">_xlfn.SWITCH(data[[#This Row],[diffusion_type]],"lognormal",0.0001,"normal",-0.01)*IF(data[[#This Row],[asset_class]]="Vol",-1,1)</f>
-        <v>-1E-4</v>
+        <v>1E-4</v>
       </c>
       <c r="P70" s="4" t="str">
         <f>data[[#This Row],[factor_name]]</f>
-        <v>^VVIX</v>
-      </c>
-      <c r="Q70" s="8"/>
+        <v>FXF</v>
+      </c>
+      <c r="Q70" s="4"/>
       <c r="S70" t="b">
         <v>0</v>
       </c>
@@ -18397,12 +19301,12 @@
         <v>40</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="D71" s="4"/>
       <c r="E71" s="4"/>
       <c r="F71" s="4" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="G71" s="4"/>
       <c r="H71" s="4">
@@ -18419,7 +19323,7 @@
       </c>
       <c r="L71" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>ICE BofAML MOVE Index</v>
+        <v>CBOE Volatility Index</v>
       </c>
       <c r="M71" s="4" t="s">
         <v>455</v>
@@ -18433,9 +19337,9 @@
       </c>
       <c r="P71" s="4" t="str">
         <f>data[[#This Row],[factor_name]]</f>
-        <v>^MOVE</v>
-      </c>
-      <c r="Q71" s="8"/>
+        <v>^VIX</v>
+      </c>
+      <c r="Q71" s="4"/>
       <c r="S71" t="b">
         <v>1</v>
       </c>
@@ -18448,16 +19352,16 @@
         <v>40</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>478</v>
+        <v>495</v>
       </c>
       <c r="D72" s="4"/>
       <c r="E72" s="4"/>
       <c r="F72" s="4" t="s">
-        <v>479</v>
+        <v>496</v>
       </c>
       <c r="G72" s="4"/>
       <c r="H72" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I72" s="4">
         <v>0</v>
@@ -18470,7 +19374,7 @@
       </c>
       <c r="L72" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>CBOE Crude Oil Volatility Index</v>
+        <v>VIX Short-Term Futures ETN</v>
       </c>
       <c r="M72" s="4" t="s">
         <v>455</v>
@@ -18484,9 +19388,9 @@
       </c>
       <c r="P72" s="4" t="str">
         <f>data[[#This Row],[factor_name]]</f>
-        <v>^OVX</v>
-      </c>
-      <c r="Q72" s="8"/>
+        <v>VXX</v>
+      </c>
+      <c r="Q72" s="4"/>
       <c r="S72" t="b">
         <v>0</v>
       </c>
@@ -18499,16 +19403,16 @@
         <v>40</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>480</v>
+        <v>497</v>
       </c>
       <c r="D73" s="4"/>
       <c r="E73" s="4"/>
       <c r="F73" s="4" t="s">
-        <v>481</v>
+        <v>498</v>
       </c>
       <c r="G73" s="4"/>
       <c r="H73" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73" s="4">
         <v>0</v>
@@ -18521,7 +19425,7 @@
       </c>
       <c r="L73" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>CBOE Euro currency Volatility I</v>
+        <v>CBOE S&amp;P 500 3-Month Volatility</v>
       </c>
       <c r="M73" s="4" t="s">
         <v>455</v>
@@ -18535,9 +19439,9 @@
       </c>
       <c r="P73" s="4" t="str">
         <f>data[[#This Row],[factor_name]]</f>
-        <v>^EVZ</v>
-      </c>
-      <c r="Q73" s="8"/>
+        <v>^VIX3M</v>
+      </c>
+      <c r="Q73" s="4"/>
       <c r="S73" t="b">
         <v>0</v>
       </c>
@@ -18550,12 +19454,12 @@
         <v>40</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="D74" s="4"/>
       <c r="E74" s="4"/>
       <c r="F74" s="4" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="G74" s="4"/>
       <c r="H74" s="4">
@@ -18572,7 +19476,7 @@
       </c>
       <c r="L74" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>CBOE Gold Volatility Index</v>
+        <v>CBOE VIX VOLATILITY INDEX</v>
       </c>
       <c r="M74" s="4" t="s">
         <v>455</v>
@@ -18586,9 +19490,9 @@
       </c>
       <c r="P74" s="4" t="str">
         <f>data[[#This Row],[factor_name]]</f>
-        <v>^GVZ</v>
-      </c>
-      <c r="Q74" s="8"/>
+        <v>^VVIX</v>
+      </c>
+      <c r="Q74" s="4"/>
       <c r="S74" t="b">
         <v>1</v>
       </c>
@@ -18601,16 +19505,16 @@
         <v>40</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="D75" s="4"/>
       <c r="E75" s="4"/>
       <c r="F75" s="4" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="G75" s="4"/>
       <c r="H75" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75" s="4">
         <v>0</v>
@@ -18623,7 +19527,7 @@
       </c>
       <c r="L75" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>Cboe Implied Correlation Index</v>
+        <v>ICE BofAML MOVE Index</v>
       </c>
       <c r="M75" s="4" t="s">
         <v>455</v>
@@ -18637,42 +19541,44 @@
       </c>
       <c r="P75" s="4" t="str">
         <f>data[[#This Row],[factor_name]]</f>
-        <v>^COR3M</v>
-      </c>
-      <c r="Q75" s="8"/>
+        <v>^MOVE</v>
+      </c>
+      <c r="Q75" s="4"/>
       <c r="S75" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
-        <v>446</v>
+        <v>476</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>40</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>429</v>
+        <v>478</v>
       </c>
       <c r="D76" s="4"/>
       <c r="E76" s="4"/>
-      <c r="F76" s="4"/>
+      <c r="F76" s="4" t="s">
+        <v>479</v>
+      </c>
       <c r="G76" s="4"/>
       <c r="H76" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J76" s="4">
         <v>0</v>
       </c>
-      <c r="K76" s="4" t="s">
-        <v>488</v>
-      </c>
-      <c r="L76" s="4">
+      <c r="K76" s="4">
+        <v>0</v>
+      </c>
+      <c r="L76" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>0</v>
+        <v>CBOE Crude Oil Volatility Index</v>
       </c>
       <c r="M76" s="4" t="s">
         <v>455</v>
@@ -18682,174 +19588,179 @@
       </c>
       <c r="O76" s="4" cm="1">
         <f t="array" ref="O76">_xlfn.SWITCH(data[[#This Row],[diffusion_type]],"lognormal",0.0001,"normal",-0.01)*IF(data[[#This Row],[asset_class]]="Vol",-1,1)</f>
-        <v>1E-4</v>
+        <v>-1E-4</v>
       </c>
       <c r="P76" s="4" t="str">
         <f>data[[#This Row],[factor_name]]</f>
-        <v>MWTIX</v>
-      </c>
-      <c r="Q76" s="8"/>
+        <v>^OVX</v>
+      </c>
+      <c r="Q76" s="4"/>
       <c r="S76" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
-        <v>444</v>
+        <v>476</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>40</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>430</v>
+        <v>480</v>
       </c>
       <c r="D77" s="4"/>
       <c r="E77" s="4"/>
-      <c r="F77" s="4"/>
+      <c r="F77" s="4" t="s">
+        <v>481</v>
+      </c>
       <c r="G77" s="4"/>
       <c r="H77" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K77" s="4">
         <v>0</v>
       </c>
-      <c r="L77" s="4">
+      <c r="L77" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>0</v>
+        <v>CBOE Euro currency Volatility I</v>
       </c>
       <c r="M77" s="4" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
       <c r="N77" s="4" t="s">
         <v>454</v>
       </c>
       <c r="O77" s="4" cm="1">
         <f t="array" ref="O77">_xlfn.SWITCH(data[[#This Row],[diffusion_type]],"lognormal",0.0001,"normal",-0.01)*IF(data[[#This Row],[asset_class]]="Vol",-1,1)</f>
-        <v>1E-4</v>
+        <v>-1E-4</v>
       </c>
       <c r="P77" s="4" t="str">
         <f>data[[#This Row],[factor_name]]</f>
-        <v>TRUMP</v>
-      </c>
-      <c r="Q77" s="8"/>
-      <c r="R77" s="2"/>
+        <v>^EVZ</v>
+      </c>
+      <c r="Q77" s="4"/>
       <c r="S77" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
-        <v>444</v>
+        <v>476</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>40</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>439</v>
+        <v>482</v>
       </c>
       <c r="D78" s="4"/>
       <c r="E78" s="4"/>
-      <c r="F78" s="4"/>
+      <c r="F78" s="4" t="s">
+        <v>483</v>
+      </c>
       <c r="G78" s="4"/>
       <c r="H78" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K78" s="4">
         <v>0</v>
       </c>
-      <c r="L78" s="4">
+      <c r="L78" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>0</v>
+        <v>CBOE Gold Volatility Index</v>
       </c>
       <c r="M78" s="4" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
       <c r="N78" s="4" t="s">
         <v>454</v>
       </c>
       <c r="O78" s="4" cm="1">
         <f t="array" ref="O78">_xlfn.SWITCH(data[[#This Row],[diffusion_type]],"lognormal",0.0001,"normal",-0.01)*IF(data[[#This Row],[asset_class]]="Vol",-1,1)</f>
-        <v>1E-4</v>
+        <v>-1E-4</v>
       </c>
       <c r="P78" s="4" t="str">
         <f>data[[#This Row],[factor_name]]</f>
-        <v>FED</v>
-      </c>
-      <c r="Q78" s="8"/>
+        <v>^GVZ</v>
+      </c>
+      <c r="Q78" s="4"/>
       <c r="S78" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
-        <v>444</v>
+        <v>476</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>40</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>421</v>
+        <v>485</v>
       </c>
       <c r="D79" s="4"/>
       <c r="E79" s="4"/>
-      <c r="F79" s="4"/>
+      <c r="F79" s="4" t="s">
+        <v>486</v>
+      </c>
       <c r="G79" s="4"/>
       <c r="H79" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J79" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K79" s="4">
         <v>0</v>
       </c>
-      <c r="L79" s="4">
+      <c r="L79" s="4" t="str">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
-        <v>0</v>
+        <v>Cboe Implied Correlation Index</v>
       </c>
       <c r="M79" s="4" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
       <c r="N79" s="4" t="s">
         <v>454</v>
       </c>
       <c r="O79" s="4" cm="1">
         <f t="array" ref="O79">_xlfn.SWITCH(data[[#This Row],[diffusion_type]],"lognormal",0.0001,"normal",-0.01)*IF(data[[#This Row],[asset_class]]="Vol",-1,1)</f>
-        <v>1E-4</v>
+        <v>-1E-4</v>
       </c>
       <c r="P79" s="4" t="str">
         <f>data[[#This Row],[factor_name]]</f>
-        <v>AI</v>
-      </c>
-      <c r="Q79" s="8"/>
+        <v>^COR3M</v>
+      </c>
+      <c r="Q79" s="4"/>
       <c r="S79" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A80" s="4" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>40</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>450</v>
+        <v>429</v>
       </c>
       <c r="D80" s="4"/>
       <c r="E80" s="4"/>
@@ -18862,17 +19773,17 @@
         <v>1</v>
       </c>
       <c r="J80" s="4">
-        <v>1</v>
-      </c>
-      <c r="K80" s="4">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K80" s="4" t="s">
+        <v>488</v>
       </c>
       <c r="L80" s="4">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
         <v>0</v>
       </c>
       <c r="M80" s="4" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
       <c r="N80" s="4" t="s">
         <v>454</v>
@@ -18883,9 +19794,10 @@
       </c>
       <c r="P80" s="4" t="str">
         <f>data[[#This Row],[factor_name]]</f>
-        <v>GEOPOLITICS</v>
-      </c>
-      <c r="Q80" s="8"/>
+        <v>MWTIX</v>
+      </c>
+      <c r="Q80" s="4"/>
+      <c r="R80" s="2"/>
       <c r="S80" t="b">
         <v>1</v>
       </c>
@@ -18898,7 +19810,7 @@
         <v>40</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>451</v>
+        <v>430</v>
       </c>
       <c r="D81" s="4"/>
       <c r="E81" s="4"/>
@@ -18932,18 +19844,333 @@
       </c>
       <c r="P81" s="4" t="str">
         <f>data[[#This Row],[factor_name]]</f>
+        <v>TRUMP</v>
+      </c>
+      <c r="Q81" s="4"/>
+      <c r="S81" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A82" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="D82" s="4"/>
+      <c r="E82" s="4"/>
+      <c r="F82" s="4"/>
+      <c r="G82" s="4"/>
+      <c r="H82" s="4">
+        <v>1</v>
+      </c>
+      <c r="I82" s="4">
+        <v>1</v>
+      </c>
+      <c r="J82" s="4">
+        <v>1</v>
+      </c>
+      <c r="K82" s="4">
+        <v>0</v>
+      </c>
+      <c r="L82" s="4">
+        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+        <v>0</v>
+      </c>
+      <c r="M82" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="N82" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="O82" s="4" cm="1">
+        <f t="array" ref="O82">_xlfn.SWITCH(data[[#This Row],[diffusion_type]],"lognormal",0.0001,"normal",-0.01)*IF(data[[#This Row],[asset_class]]="Vol",-1,1)</f>
+        <v>1E-4</v>
+      </c>
+      <c r="P82" s="4" t="str">
+        <f>data[[#This Row],[factor_name]]</f>
+        <v>FED</v>
+      </c>
+      <c r="Q82" s="4"/>
+      <c r="S82" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A83" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="D83" s="4"/>
+      <c r="E83" s="4"/>
+      <c r="F83" s="4"/>
+      <c r="G83" s="4"/>
+      <c r="H83" s="4">
+        <v>1</v>
+      </c>
+      <c r="I83" s="4">
+        <v>1</v>
+      </c>
+      <c r="J83" s="4">
+        <v>1</v>
+      </c>
+      <c r="K83" s="4">
+        <v>0</v>
+      </c>
+      <c r="L83" s="4">
+        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+        <v>0</v>
+      </c>
+      <c r="M83" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="N83" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="O83" s="4" cm="1">
+        <f t="array" ref="O83">_xlfn.SWITCH(data[[#This Row],[diffusion_type]],"lognormal",0.0001,"normal",-0.01)*IF(data[[#This Row],[asset_class]]="Vol",-1,1)</f>
+        <v>1E-4</v>
+      </c>
+      <c r="P83" s="4" t="str">
+        <f>data[[#This Row],[factor_name]]</f>
+        <v>AI</v>
+      </c>
+      <c r="Q83" s="4"/>
+      <c r="S83" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A84" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="D84" s="4"/>
+      <c r="E84" s="4"/>
+      <c r="F84" s="4"/>
+      <c r="G84" s="4"/>
+      <c r="H84" s="4">
+        <v>1</v>
+      </c>
+      <c r="I84" s="4">
+        <v>1</v>
+      </c>
+      <c r="J84" s="4">
+        <v>1</v>
+      </c>
+      <c r="K84" s="4">
+        <v>0</v>
+      </c>
+      <c r="L84" s="4">
+        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+        <v>0</v>
+      </c>
+      <c r="M84" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="N84" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="O84" s="4" cm="1">
+        <f t="array" ref="O84">_xlfn.SWITCH(data[[#This Row],[diffusion_type]],"lognormal",0.0001,"normal",-0.01)*IF(data[[#This Row],[asset_class]]="Vol",-1,1)</f>
+        <v>1E-4</v>
+      </c>
+      <c r="P84" s="4" t="str">
+        <f>data[[#This Row],[factor_name]]</f>
+        <v>GEOPOLITICS</v>
+      </c>
+      <c r="Q84" s="4"/>
+      <c r="S84" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A85" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="D85" s="4"/>
+      <c r="E85" s="4"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="4"/>
+      <c r="H85" s="4">
+        <v>1</v>
+      </c>
+      <c r="I85" s="4">
+        <v>1</v>
+      </c>
+      <c r="J85" s="4">
+        <v>1</v>
+      </c>
+      <c r="K85" s="4">
+        <v>0</v>
+      </c>
+      <c r="L85" s="4">
+        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+        <v>0</v>
+      </c>
+      <c r="M85" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="N85" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="O85" s="4" cm="1">
+        <f t="array" ref="O85">_xlfn.SWITCH(data[[#This Row],[diffusion_type]],"lognormal",0.0001,"normal",-0.01)*IF(data[[#This Row],[asset_class]]="Vol",-1,1)</f>
+        <v>1E-4</v>
+      </c>
+      <c r="P85" s="4" t="str">
+        <f>data[[#This Row],[factor_name]]</f>
         <v>2s10s</v>
       </c>
-      <c r="Q81" s="8"/>
-      <c r="S81" t="b">
+      <c r="Q85" s="4"/>
+      <c r="S85" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A86" s="10" t="s">
+        <v>444</v>
+      </c>
+      <c r="B86" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C86" s="10" t="s">
+        <v>505</v>
+      </c>
+      <c r="D86" s="10"/>
+      <c r="E86" s="10"/>
+      <c r="F86" s="10"/>
+      <c r="G86" s="10"/>
+      <c r="H86" s="10">
+        <v>1</v>
+      </c>
+      <c r="I86" s="10">
+        <v>1</v>
+      </c>
+      <c r="J86" s="10">
+        <v>1</v>
+      </c>
+      <c r="K86" s="10">
+        <v>0</v>
+      </c>
+      <c r="L86" s="11">
+        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+        <v>0</v>
+      </c>
+      <c r="M86" s="10" t="s">
+        <v>445</v>
+      </c>
+      <c r="N86" s="10" t="s">
+        <v>454</v>
+      </c>
+      <c r="O86" s="11" cm="1">
+        <f t="array" ref="O86">_xlfn.SWITCH(data[[#This Row],[diffusion_type]],"lognormal",0.0001,"normal",-0.01)*IF(data[[#This Row],[asset_class]]="Vol",-1,1)</f>
+        <v>1E-4</v>
+      </c>
+      <c r="P86" s="11" t="str">
+        <f>data[[#This Row],[factor_name]]</f>
+        <v>XLPXLY</v>
+      </c>
+      <c r="Q86" s="11"/>
+      <c r="R86" s="9"/>
+      <c r="S86" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A87" s="10" t="s">
+        <v>444</v>
+      </c>
+      <c r="B87" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C87" s="10" t="s">
+        <v>502</v>
+      </c>
+      <c r="D87" s="10"/>
+      <c r="E87" s="10"/>
+      <c r="F87" s="10"/>
+      <c r="G87" s="10"/>
+      <c r="H87" s="10">
+        <v>1</v>
+      </c>
+      <c r="I87" s="10">
+        <v>1</v>
+      </c>
+      <c r="J87" s="10">
+        <v>1</v>
+      </c>
+      <c r="K87" s="10">
+        <v>0</v>
+      </c>
+      <c r="L87" s="11">
+        <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
+        <v>0</v>
+      </c>
+      <c r="M87" s="10" t="s">
+        <v>445</v>
+      </c>
+      <c r="N87" s="10" t="s">
+        <v>454</v>
+      </c>
+      <c r="O87" s="11" cm="1">
+        <f t="array" ref="O87">_xlfn.SWITCH(data[[#This Row],[diffusion_type]],"lognormal",0.0001,"normal",-0.01)*IF(data[[#This Row],[asset_class]]="Vol",-1,1)</f>
+        <v>1E-4</v>
+      </c>
+      <c r="P87" s="11" t="str">
+        <f>data[[#This Row],[factor_name]]</f>
+        <v>TRADEWAR</v>
+      </c>
+      <c r="Q87" s="11"/>
+      <c r="S87" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="A2:Q81">
-    <cfRule type="expression" dxfId="1" priority="7">
+  <conditionalFormatting sqref="A2:Q65 A68:Q72">
+    <cfRule type="expression" dxfId="4" priority="8">
       <formula>$S2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A67:Q67 A76:Q85 A73:Q74 A87:B87 H87:K87 M87:N87">
+    <cfRule type="expression" dxfId="3" priority="12">
+      <formula>$S66</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A66:Q66">
+    <cfRule type="expression" dxfId="2" priority="1">
+      <formula>$S65</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A75:Q75">
+    <cfRule type="expression" dxfId="1" priority="14">
+      <formula>$S73</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A86:B86 H86:K86 M86:N86">
+    <cfRule type="expression" dxfId="0" priority="24">
+      <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19124,7 +20351,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5A64DEF-E706-4B9C-B282-71F34F86B3DF}">
-  <dimension ref="A1:J64"/>
+  <dimension ref="A1:J70"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -19169,11 +20396,11 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="str" cm="1">
-        <f t="array" ref="A2:A64">_xlfn._xlws.FILTER(data[factor_name],data[Active])</f>
+        <f t="array" ref="A2:A70">_xlfn._xlws.FILTER(data[factor_name],data[Active])</f>
         <v>SPY</v>
       </c>
       <c r="B2" t="str" cm="1">
-        <f t="array" ref="B2:J64">INDEX(data[],_xlfn.XMATCH(_xlfn.ANCHORARRAY(A2),data[factor_name]),_xlfn.XMATCH(B1:J1,data[#Headers]))</f>
+        <f t="array" ref="B2:J70">INDEX(data[],_xlfn.XMATCH(_xlfn.ANCHORARRAY(A2),data[factor_name]),_xlfn.XMATCH(B1:J1,data[#Headers]))</f>
         <v>Equities</v>
       </c>
       <c r="C2" t="str">
@@ -20867,13 +22094,13 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" t="str">
-        <v>FXE</v>
+        <v>DX-Y.NYB</v>
       </c>
       <c r="B55" t="str">
         <v>Currencies</v>
       </c>
       <c r="C55" t="str">
-        <v>EUR</v>
+        <v>USD</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -20881,14 +22108,14 @@
       <c r="E55">
         <v>0</v>
       </c>
-      <c r="F55" t="str">
-        <v>Invesco CurrencyShares Euro Trust</v>
+      <c r="F55">
+        <v>0</v>
       </c>
       <c r="G55" t="str">
         <v>yfinance</v>
       </c>
       <c r="H55" t="str">
-        <v>FXE</v>
+        <v>DX-Y.NYB</v>
       </c>
       <c r="I55" t="str">
         <v>lognormal</v>
@@ -20899,13 +22126,13 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" t="str">
-        <v>FXY</v>
+        <v>FXE</v>
       </c>
       <c r="B56" t="str">
         <v>Currencies</v>
       </c>
       <c r="C56" t="str">
-        <v>JPY</v>
+        <v>EUR</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -20914,13 +22141,13 @@
         <v>0</v>
       </c>
       <c r="F56" t="str">
-        <v>Invesco CurrencyShares Japanese Yen Trust</v>
+        <v>Invesco CurrencyShares Euro Trust</v>
       </c>
       <c r="G56" t="str">
         <v>yfinance</v>
       </c>
       <c r="H56" t="str">
-        <v>FXY</v>
+        <v>FXE</v>
       </c>
       <c r="I56" t="str">
         <v>lognormal</v>
@@ -20931,13 +22158,13 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" t="str">
-        <v>^VIX</v>
+        <v>FXY</v>
       </c>
       <c r="B57" t="str">
-        <v>Vol</v>
+        <v>Currencies</v>
       </c>
       <c r="C57" t="str">
-        <v>USD</v>
+        <v>JPY</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -20946,30 +22173,30 @@
         <v>0</v>
       </c>
       <c r="F57" t="str">
-        <v>CBOE Volatility Index</v>
+        <v>Invesco CurrencyShares Japanese Yen Trust</v>
       </c>
       <c r="G57" t="str">
         <v>yfinance</v>
       </c>
       <c r="H57" t="str">
-        <v>^VIX</v>
+        <v>FXY</v>
       </c>
       <c r="I57" t="str">
         <v>lognormal</v>
       </c>
       <c r="J57">
-        <v>-1E-4</v>
+        <v>1E-4</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" t="str">
-        <v>^MOVE</v>
+        <v>FXF</v>
       </c>
       <c r="B58" t="str">
-        <v>Vol</v>
+        <v>Currencies</v>
       </c>
       <c r="C58" t="str">
-        <v>USD</v>
+        <v>JPY</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -20978,155 +22205,155 @@
         <v>0</v>
       </c>
       <c r="F58" t="str">
-        <v>ICE BofAML MOVE Index</v>
+        <v>Invesco CurrencyShares Swiss Franc Trust</v>
       </c>
       <c r="G58" t="str">
         <v>yfinance</v>
       </c>
       <c r="H58" t="str">
-        <v>^MOVE</v>
+        <v>FXF</v>
       </c>
       <c r="I58" t="str">
         <v>lognormal</v>
       </c>
       <c r="J58">
-        <v>-1E-4</v>
+        <v>1E-4</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" t="str">
-        <v>MWTIX</v>
+        <v>^VIX</v>
       </c>
       <c r="B59" t="str">
-        <v>Portfolio</v>
+        <v>Vol</v>
       </c>
       <c r="C59" t="str">
         <v>USD</v>
       </c>
       <c r="D59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E59">
         <v>0</v>
       </c>
-      <c r="F59">
-        <v>0</v>
+      <c r="F59" t="str">
+        <v>CBOE Volatility Index</v>
       </c>
       <c r="G59" t="str">
         <v>yfinance</v>
       </c>
       <c r="H59" t="str">
-        <v>MWTIX</v>
+        <v>^VIX</v>
       </c>
       <c r="I59" t="str">
         <v>lognormal</v>
       </c>
       <c r="J59">
-        <v>1E-4</v>
+        <v>-1E-4</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" t="str">
-        <v>TRUMP</v>
+        <v>VXX</v>
       </c>
       <c r="B60" t="str">
-        <v>Theme</v>
+        <v>Vol</v>
       </c>
       <c r="C60" t="str">
         <v>USD</v>
       </c>
       <c r="D60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E60">
-        <v>1</v>
-      </c>
-      <c r="F60">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="F60" t="str">
+        <v>VIX Short-Term Futures ETN</v>
       </c>
       <c r="G60" t="str">
-        <v>composite</v>
+        <v>yfinance</v>
       </c>
       <c r="H60" t="str">
-        <v>TRUMP</v>
+        <v>VXX</v>
       </c>
       <c r="I60" t="str">
         <v>lognormal</v>
       </c>
       <c r="J60">
-        <v>1E-4</v>
+        <v>-1E-4</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" t="str">
-        <v>FED</v>
+        <v>^VIX3M</v>
       </c>
       <c r="B61" t="str">
-        <v>Theme</v>
+        <v>Vol</v>
       </c>
       <c r="C61" t="str">
         <v>USD</v>
       </c>
       <c r="D61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E61">
-        <v>1</v>
-      </c>
-      <c r="F61">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="F61" t="str">
+        <v>CBOE S&amp;P 500 3-Month Volatility</v>
       </c>
       <c r="G61" t="str">
-        <v>composite</v>
+        <v>yfinance</v>
       </c>
       <c r="H61" t="str">
-        <v>FED</v>
+        <v>^VIX3M</v>
       </c>
       <c r="I61" t="str">
         <v>lognormal</v>
       </c>
       <c r="J61">
-        <v>1E-4</v>
+        <v>-1E-4</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" t="str">
-        <v>AI</v>
+        <v>^MOVE</v>
       </c>
       <c r="B62" t="str">
-        <v>Theme</v>
+        <v>Vol</v>
       </c>
       <c r="C62" t="str">
         <v>USD</v>
       </c>
       <c r="D62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E62">
-        <v>1</v>
-      </c>
-      <c r="F62">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="F62" t="str">
+        <v>ICE BofAML MOVE Index</v>
       </c>
       <c r="G62" t="str">
-        <v>composite</v>
+        <v>yfinance</v>
       </c>
       <c r="H62" t="str">
-        <v>AI</v>
+        <v>^MOVE</v>
       </c>
       <c r="I62" t="str">
         <v>lognormal</v>
       </c>
       <c r="J62">
-        <v>1E-4</v>
+        <v>-1E-4</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" t="str">
-        <v>GEOPOLITICS</v>
+        <v>MWTIX</v>
       </c>
       <c r="B63" t="str">
-        <v>Theme</v>
+        <v>Portfolio</v>
       </c>
       <c r="C63" t="str">
         <v>USD</v>
@@ -21135,16 +22362,16 @@
         <v>1</v>
       </c>
       <c r="E63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F63">
         <v>0</v>
       </c>
       <c r="G63" t="str">
-        <v>composite</v>
+        <v>yfinance</v>
       </c>
       <c r="H63" t="str">
-        <v>GEOPOLITICS</v>
+        <v>MWTIX</v>
       </c>
       <c r="I63" t="str">
         <v>lognormal</v>
@@ -21155,7 +22382,7 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" t="str">
-        <v>2s10s</v>
+        <v>TRUMP</v>
       </c>
       <c r="B64" t="str">
         <v>Theme</v>
@@ -21176,12 +22403,204 @@
         <v>composite</v>
       </c>
       <c r="H64" t="str">
-        <v>2s10s</v>
+        <v>TRUMP</v>
       </c>
       <c r="I64" t="str">
         <v>lognormal</v>
       </c>
       <c r="J64">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A65" t="str">
+        <v>FED</v>
+      </c>
+      <c r="B65" t="str">
+        <v>Theme</v>
+      </c>
+      <c r="C65" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65" t="str">
+        <v>composite</v>
+      </c>
+      <c r="H65" t="str">
+        <v>FED</v>
+      </c>
+      <c r="I65" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J65">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A66" t="str">
+        <v>AI</v>
+      </c>
+      <c r="B66" t="str">
+        <v>Theme</v>
+      </c>
+      <c r="C66" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66" t="str">
+        <v>composite</v>
+      </c>
+      <c r="H66" t="str">
+        <v>AI</v>
+      </c>
+      <c r="I66" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J66">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A67" t="str">
+        <v>GEOPOLITICS</v>
+      </c>
+      <c r="B67" t="str">
+        <v>Theme</v>
+      </c>
+      <c r="C67" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67" t="str">
+        <v>composite</v>
+      </c>
+      <c r="H67" t="str">
+        <v>GEOPOLITICS</v>
+      </c>
+      <c r="I67" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J67">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A68" t="str">
+        <v>2s10s</v>
+      </c>
+      <c r="B68" t="str">
+        <v>Theme</v>
+      </c>
+      <c r="C68" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68" t="str">
+        <v>composite</v>
+      </c>
+      <c r="H68" t="str">
+        <v>2s10s</v>
+      </c>
+      <c r="I68" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J68">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A69" t="str">
+        <v>XLPXLY</v>
+      </c>
+      <c r="B69" t="str">
+        <v>Theme</v>
+      </c>
+      <c r="C69" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69" t="str">
+        <v>composite</v>
+      </c>
+      <c r="H69" t="str">
+        <v>XLPXLY</v>
+      </c>
+      <c r="I69" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J69">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A70" t="str">
+        <v>TRADEWAR</v>
+      </c>
+      <c r="B70" t="str">
+        <v>Theme</v>
+      </c>
+      <c r="C70" t="str">
+        <v>USD</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70" t="str">
+        <v>composite</v>
+      </c>
+      <c r="H70" t="str">
+        <v>TRADEWAR</v>
+      </c>
+      <c r="I70" t="str">
+        <v>lognormal</v>
+      </c>
+      <c r="J70">
         <v>1E-4</v>
       </c>
     </row>

--- a/risk_lib/factor_master.xlsx
+++ b/risk_lib/factor_master.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bkrai\Source\risk\risk_lib\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B492B03-0CC0-4B15-B78A-A924D753610B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A550DB0-E25E-4E50-BFD9-FF4AD6658C04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="5" xr2:uid="{C31FDC5B-A809-4BFD-99CB-DA02246721F7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="4" activeTab="11" xr2:uid="{C31FDC5B-A809-4BFD-99CB-DA02246721F7}"/>
   </bookViews>
   <sheets>
     <sheet name="legacy" sheetId="5" r:id="rId1"/>
@@ -1616,7 +1616,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -1676,7 +1676,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1695,15 +1695,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -5852,7 +5844,7 @@
   <dimension ref="A1:J69"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8079,7 +8071,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07B51E7A-08A5-4042-86E1-7986ED98437B}">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -8088,40 +8082,32 @@
         <f>read!A1</f>
         <v>factor_name</v>
       </c>
-      <c r="B1" t="str">
-        <f>read!B1</f>
+      <c r="B1" t="str" cm="1">
+        <f t="array" ref="B1:J1">_xlfn.DROP(_xlfn.TRIMRANGE(read!1:1),,1)</f>
         <v>asset_class</v>
       </c>
       <c r="C1" t="str">
-        <f>read!C1</f>
         <v>region</v>
       </c>
       <c r="D1" t="str">
-        <f>read!D1</f>
         <v>hyper_factor</v>
       </c>
       <c r="E1" t="str">
-        <f>read!E1</f>
         <v>composite</v>
       </c>
       <c r="F1" t="str">
-        <f>read!F1</f>
         <v>description</v>
       </c>
       <c r="G1" t="str">
-        <f>read!G1</f>
         <v>source</v>
       </c>
       <c r="H1" t="str">
-        <f>read!H1</f>
         <v>ticker</v>
       </c>
       <c r="I1" t="str">
-        <f>read!I1</f>
         <v>diffusion_type</v>
       </c>
       <c r="J1" t="str">
-        <f>read!J1</f>
         <v>multiplier</v>
       </c>
     </row>
@@ -8131,7 +8117,7 @@
         <v>SPY</v>
       </c>
       <c r="B2" t="str" cm="1">
-        <f t="array" ref="B2:J6">_xlfn.CHOOSEROWS(_xlfn.ANCHORARRAY(read!B2),_xlfn.SEQUENCE(5))</f>
+        <f t="array" ref="B2:J6">INDEX(data[],_xlfn.XMATCH(_xlfn.ANCHORARRAY(A2),data[factor_name]),_xlfn.XMATCH(_xlfn.ANCHORARRAY(B1),data[#Headers]))</f>
         <v>Equities</v>
       </c>
       <c r="C2" t="str">
@@ -14587,9 +14573,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -14847,8 +14831,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:W31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14856,8 +14840,6 @@
     <col min="1" max="1" width="15.44140625" customWidth="1"/>
     <col min="2" max="2" width="13.33203125" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="9"/>
-    <col min="8" max="8" width="8.88671875" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.3">
@@ -15206,14 +15188,14 @@
         <v>441</v>
       </c>
     </row>
-    <row r="15" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="9" t="s">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>505</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" t="s">
         <v>182</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="8">
         <v>1</v>
       </c>
       <c r="E15">
@@ -15222,150 +15204,148 @@
       <c r="G15" t="s">
         <v>505</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H15">
         <v>22</v>
       </c>
-      <c r="K15" s="9" t="b">
+      <c r="K15" t="b">
         <f ca="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="9" t="s">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>505</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" t="s">
         <v>178</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="8">
         <v>-1</v>
       </c>
-      <c r="D16"/>
-      <c r="E16"/>
-      <c r="H16" s="9">
+      <c r="H16">
         <v>16</v>
       </c>
-      <c r="K16" s="9" t="b">
+      <c r="K16" t="b">
         <f ca="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="9" t="s">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>502</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" t="s">
         <v>57</v>
       </c>
-      <c r="C17" s="12" cm="1">
+      <c r="C17" s="8" cm="1">
         <f t="array" ref="C17">E17/D17*$F$17/SUM(ABS(($E$17:$E$21)))</f>
         <v>0.20547945205479451</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17">
         <v>14.6</v>
       </c>
-      <c r="E17" s="9">
-        <v>1</v>
-      </c>
-      <c r="F17" s="13">
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17" s="9">
         <v>15</v>
       </c>
-      <c r="J17" s="9" cm="1">
+      <c r="J17" cm="1">
         <f t="array" ref="J17:J20">C17:C20*D17:D20</f>
         <v>2.9999999999999996</v>
       </c>
-      <c r="K17" s="9" t="b">
+      <c r="K17" t="b">
         <f ca="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="9" t="s">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>502</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" t="s">
         <v>72</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="8">
         <f>E18/D18*$F$17/COUNT($E$17:$E$21)</f>
         <v>0.29702970297029702</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18">
         <v>10.1</v>
       </c>
-      <c r="E18" s="9">
-        <v>1</v>
-      </c>
-      <c r="J18" s="9">
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="J18">
         <v>2.9999999999999996</v>
       </c>
-      <c r="K18" s="9" t="b">
+      <c r="K18" t="b">
         <f ca="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="9" t="s">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>502</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" t="s">
         <v>499</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="8">
         <f>E19/D19*$F$17/COUNT($E$17:$E$21)</f>
         <v>0.36585365853658536</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19">
         <v>8.1999999999999993</v>
       </c>
-      <c r="E19" s="9">
-        <v>1</v>
-      </c>
-      <c r="J19" s="9">
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="J19">
         <v>2.9999999999999996</v>
       </c>
-      <c r="K19" s="9" t="b">
+      <c r="K19" t="b">
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="M19" s="9" t="s">
+      <c r="M19" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="20" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="9" t="s">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>502</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" t="s">
         <v>497</v>
       </c>
-      <c r="C20" s="12">
+      <c r="C20" s="8">
         <f>E20/D20*$F$17/COUNT($E$17:$E$21)</f>
         <v>-3.7499999999999999E-2</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20">
         <v>80</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20">
         <v>-1</v>
       </c>
-      <c r="J20" s="9">
+      <c r="J20">
         <v>-3</v>
       </c>
-      <c r="K20" s="9" t="b">
+      <c r="K20" t="b">
         <f ca="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="9" t="s">
+      <c r="A21" t="s">
         <v>502</v>
       </c>
-      <c r="B21" s="9" t="str">
+      <c r="B21" t="str">
         <f t="shared" ref="B21:B22" si="0">B15</f>
         <v>XLP</v>
       </c>
-      <c r="C21" s="12">
+      <c r="C21" s="8">
         <f>E21/D21*$F$17/COUNT($E$17:$E$21)</f>
         <v>0.15</v>
       </c>
@@ -15381,40 +15361,24 @@
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="9" t="s">
+      <c r="A22" t="s">
         <v>502</v>
       </c>
-      <c r="B22" s="9" t="str">
+      <c r="B22" t="str">
         <f t="shared" si="0"/>
         <v>XLY</v>
       </c>
-      <c r="C22" s="12">
+      <c r="C22" s="8">
         <f>-C21</f>
         <v>-0.15</v>
       </c>
-      <c r="D22" s="9"/>
       <c r="K22" t="b">
         <f ca="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="9"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D24" s="9"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D25" s="9"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C26" s="9"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C27" s="9"/>
+      <c r="C23" s="8"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
@@ -15445,7 +15409,7 @@
       <c r="B29" t="s">
         <v>72</v>
       </c>
-      <c r="C29" s="12">
+      <c r="C29" s="8">
         <f>E29/D29</f>
         <v>0.29702970297029702</v>
       </c>
@@ -15466,7 +15430,7 @@
       <c r="B30" t="s">
         <v>499</v>
       </c>
-      <c r="C30" s="12">
+      <c r="C30" s="8">
         <f>E30/D30</f>
         <v>0.36585365853658541</v>
       </c>
@@ -15487,10 +15451,10 @@
       <c r="A31" t="s">
         <v>506</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" t="s">
         <v>497</v>
       </c>
-      <c r="C31" s="12">
+      <c r="C31" s="8">
         <f>E31/D31</f>
         <v>-0.1125</v>
       </c>
@@ -15506,14 +15470,14 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:C14 A15:A16 C15:C16 B15 A28:C31">
+  <conditionalFormatting sqref="A2:C14 B15 A15:A16 C15:C16 A28:C31">
     <cfRule type="expression" dxfId="8" priority="5">
       <formula>$K2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B22:C22 B21">
-    <cfRule type="expression" dxfId="7" priority="21">
-      <formula>$K19</formula>
+  <conditionalFormatting sqref="A17:C17 B18:C20 A18:A22 C21">
+    <cfRule type="expression" dxfId="7" priority="1">
+      <formula>$K17</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23:C23">
@@ -15521,9 +15485,9 @@
       <formula>$K16</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A17:C17 C21 B18:C20 A18:A22">
-    <cfRule type="expression" dxfId="5" priority="1">
-      <formula>$K17</formula>
+  <conditionalFormatting sqref="B21 B22:C22">
+    <cfRule type="expression" dxfId="5" priority="21">
+      <formula>$K19</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20048,129 +20012,128 @@
       </c>
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A86" s="10" t="s">
+      <c r="A86" s="4" t="s">
         <v>444</v>
       </c>
-      <c r="B86" s="10" t="s">
+      <c r="B86" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C86" s="10" t="s">
+      <c r="C86" s="4" t="s">
         <v>505</v>
       </c>
-      <c r="D86" s="10"/>
-      <c r="E86" s="10"/>
-      <c r="F86" s="10"/>
-      <c r="G86" s="10"/>
-      <c r="H86" s="10">
-        <v>1</v>
-      </c>
-      <c r="I86" s="10">
-        <v>1</v>
-      </c>
-      <c r="J86" s="10">
-        <v>1</v>
-      </c>
-      <c r="K86" s="10">
-        <v>0</v>
-      </c>
-      <c r="L86" s="11">
+      <c r="D86" s="4"/>
+      <c r="E86" s="4"/>
+      <c r="F86" s="4"/>
+      <c r="G86" s="4"/>
+      <c r="H86" s="4">
+        <v>1</v>
+      </c>
+      <c r="I86" s="4">
+        <v>1</v>
+      </c>
+      <c r="J86" s="4">
+        <v>1</v>
+      </c>
+      <c r="K86" s="4">
+        <v>0</v>
+      </c>
+      <c r="L86" s="4">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
         <v>0</v>
       </c>
-      <c r="M86" s="10" t="s">
+      <c r="M86" s="4" t="s">
         <v>445</v>
       </c>
-      <c r="N86" s="10" t="s">
+      <c r="N86" s="4" t="s">
         <v>454</v>
       </c>
-      <c r="O86" s="11" cm="1">
+      <c r="O86" s="4" cm="1">
         <f t="array" ref="O86">_xlfn.SWITCH(data[[#This Row],[diffusion_type]],"lognormal",0.0001,"normal",-0.01)*IF(data[[#This Row],[asset_class]]="Vol",-1,1)</f>
         <v>1E-4</v>
       </c>
-      <c r="P86" s="11" t="str">
+      <c r="P86" s="4" t="str">
         <f>data[[#This Row],[factor_name]]</f>
         <v>XLPXLY</v>
       </c>
-      <c r="Q86" s="11"/>
-      <c r="R86" s="9"/>
-      <c r="S86" s="9" t="b">
+      <c r="Q86" s="4"/>
+      <c r="S86" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A87" s="10" t="s">
+      <c r="A87" s="4" t="s">
         <v>444</v>
       </c>
-      <c r="B87" s="10" t="s">
+      <c r="B87" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C87" s="10" t="s">
+      <c r="C87" s="4" t="s">
         <v>502</v>
       </c>
-      <c r="D87" s="10"/>
-      <c r="E87" s="10"/>
-      <c r="F87" s="10"/>
-      <c r="G87" s="10"/>
-      <c r="H87" s="10">
-        <v>1</v>
-      </c>
-      <c r="I87" s="10">
-        <v>1</v>
-      </c>
-      <c r="J87" s="10">
-        <v>1</v>
-      </c>
-      <c r="K87" s="10">
-        <v>0</v>
-      </c>
-      <c r="L87" s="11">
+      <c r="D87" s="4"/>
+      <c r="E87" s="4"/>
+      <c r="F87" s="4"/>
+      <c r="G87" s="4"/>
+      <c r="H87" s="4">
+        <v>1</v>
+      </c>
+      <c r="I87" s="4">
+        <v>1</v>
+      </c>
+      <c r="J87" s="4">
+        <v>1</v>
+      </c>
+      <c r="K87" s="4">
+        <v>0</v>
+      </c>
+      <c r="L87" s="4">
         <f>IF(data[[#This Row],[description_override]]="",data[[#This Row],[Description_GPT]],data[[#This Row],[description_override]])</f>
         <v>0</v>
       </c>
-      <c r="M87" s="10" t="s">
+      <c r="M87" s="4" t="s">
         <v>445</v>
       </c>
-      <c r="N87" s="10" t="s">
+      <c r="N87" s="4" t="s">
         <v>454</v>
       </c>
-      <c r="O87" s="11" cm="1">
+      <c r="O87" s="4" cm="1">
         <f t="array" ref="O87">_xlfn.SWITCH(data[[#This Row],[diffusion_type]],"lognormal",0.0001,"normal",-0.01)*IF(data[[#This Row],[asset_class]]="Vol",-1,1)</f>
         <v>1E-4</v>
       </c>
-      <c r="P87" s="11" t="str">
+      <c r="P87" s="4" t="str">
         <f>data[[#This Row],[factor_name]]</f>
         <v>TRADEWAR</v>
       </c>
-      <c r="Q87" s="11"/>
+      <c r="Q87" s="4"/>
       <c r="S87" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="A86:B86 H86:K86 M86:N86">
+    <cfRule type="expression" dxfId="4" priority="24">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="A2:Q65 A68:Q72">
-    <cfRule type="expression" dxfId="4" priority="8">
+    <cfRule type="expression" dxfId="3" priority="8">
       <formula>$S2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A67:Q67 A76:Q85 A73:Q74 A87:B87 H87:K87 M87:N87">
-    <cfRule type="expression" dxfId="3" priority="12">
-      <formula>$S66</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A66:Q66">
+  <conditionalFormatting sqref="A66:Q67">
     <cfRule type="expression" dxfId="2" priority="1">
       <formula>$S65</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A75:Q75">
-    <cfRule type="expression" dxfId="1" priority="14">
-      <formula>$S73</formula>
+  <conditionalFormatting sqref="A73:Q74 A76:Q85 A87:B87 H87:K87 M87:N87">
+    <cfRule type="expression" dxfId="1" priority="12">
+      <formula>$S72</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A86:B86 H86:K86 M86:N86">
-    <cfRule type="expression" dxfId="0" priority="24">
-      <formula>#REF!</formula>
+  <conditionalFormatting sqref="A75:Q75">
+    <cfRule type="expression" dxfId="0" priority="14">
+      <formula>$S73</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
